--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -18,12 +18,12 @@
     <sheet name="我的订单" sheetId="10" r:id="rId9"/>
     <sheet name="公司信息" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="506">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,17 +1203,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomePage_111_Login_QuickSearchOrders_Test.java</t>
-  </si>
-  <si>
     <t>登录情况下 进行快速查找货源操作，只输入出发地和目的地，页面正确跳转到找货源界面，并且找到指定的货源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录情况下 进行快速查找订单，页面正确跳转到我的订单页面，并且搜索出了指定的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindCarsPage_002_Public_AllDataInputSearch_Test.java</t>
   </si>
   <si>
@@ -1580,20 +1573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomePage_112_Login_MoreGoods_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_113_Login_MoreCars_Test.java</t>
-  </si>
-  <si>
-    <t>标准账户登录情况下， 首页- 公共货源上的更多链接 进入找货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准账户登录情况下， 首页-公共车源上的更多链接 进入找车源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动化测试类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1731,6 +1710,62 @@
   </si>
   <si>
     <t>标准版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_111_Login_QuickSearchOrdersForTarget_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_112_Login_QuickSearchOrdersForIncorrect_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_113_Login_QuickSearchOrdersForEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_114_Login_MoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_116_Login_UnauthenticationUserCheckHomeCars_Test.java</t>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，输入一个指定的订单，然后进行快速查询，页面跳转到我的订单页面，并且搜索出了指定的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，输入一个不合法的订单编号，点击查询，弹出“请输入正确的订单编号”的提示语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，不输入任何内容点击查询，页面成功跳转到我的订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_115_Login_MoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下（认证用户）点击更多货源，进入查找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下（认证用户）点击更多车源，进入查找车源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下，未认证的用户去查看首页的车源信息，车牌号都应该加上了*号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_117_Login_UnauthenticationUserGoodsLoc_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击定位按钮 应该弹出："您还未通过认证，暂时不能查看司机当前位置"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_118_Login_UnauthenticationUserGoodsFav_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击收藏按钮，应该收藏成功并且在找车源-我的收藏中有刚才收藏的车源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,7 +2333,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -2378,52 +2413,72 @@
         <v>308</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>347</v>
+        <v>490</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>349</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
+      <c r="A33" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
@@ -2442,16 +2497,13 @@
       <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
@@ -2470,15 +2522,6 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2511,34 +2554,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2636,10 +2679,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -3632,18 +3675,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -4118,106 +4161,106 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -4262,170 +4305,170 @@
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -4459,7 +4502,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -4500,7 +4543,7 @@
         <v>171</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -4516,7 +4559,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4524,7 +4567,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -4540,7 +4583,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -4548,7 +4591,7 @@
         <v>163</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -4564,7 +4607,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -4580,52 +4623,52 @@
         <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B23" s="8"/>
     </row>
@@ -4634,7 +4677,7 @@
         <v>316</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -4642,7 +4685,7 @@
         <v>317</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -4759,47 +4802,47 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>346</v>
@@ -4840,7 +4883,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -5282,10 +5325,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5293,95 +5336,95 @@
         <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="518">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1725,9 +1725,6 @@
     <t>HomePage_114_Login_MoreGoods_Test.java</t>
   </si>
   <si>
-    <t>HomePage_116_Login_UnauthenticationUserCheckHomeCars_Test.java</t>
-  </si>
-  <si>
     <t>订单跟踪，进行快速搜索，输入一个指定的订单，然后进行快速查询，页面跳转到我的订单页面，并且搜索出了指定的订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,17 +1752,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomePage_117_Login_UnauthenticationUserGoodsLoc_Test.java</t>
-  </si>
-  <si>
     <t>登录情况下，未认证的用户去点击定位按钮 应该弹出："您还未通过认证，暂时不能查看司机当前位置"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomePage_118_Login_UnauthenticationUserGoodsFav_Test.java</t>
-  </si>
-  <si>
     <t>登录情况下，未认证的用户去点击收藏按钮，应该收藏成功并且在找车源-我的收藏中有刚才收藏的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_116_Login_UnattestedUserCheckHomeCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_117_Login_UnattestedUserCarsLoc_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_118_Login_UnattestedUserCarsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_119_Login_UnattestedUserCarsCancelFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_120_Login_UnattestedUserGoodsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_121_Login_UnattestedUserGoodsCancelFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_122_Login_CheckGoodsCarsItems_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_123_Login_UnattestedUserGoodsCarsItems_Test.java</t>
+  </si>
+  <si>
+    <t>接着用例118，登录情况下，未认证的用户去点击取消收藏按钮,，应该取消收藏成功，同时在找车源我的收藏模块中不存在此车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击公共货源上的收藏按钮，应该收藏成功并且在找货源-我的收藏中有刚才收藏的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着用例120,在首页直接取消刚才收藏的货源，然后检查 找货源-我的收藏模块中货源应该不存在才对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_017_NotLoginCheckCarsGoodsItems_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录情况下，检测首页的公共货源和公共车源的条数，每个模块最多8条数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,7 +1865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1845,11 +1888,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1876,6 +1930,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2180,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2328,148 +2386,148 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>516</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>288</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>490</v>
+        <v>308</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="B32" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -2477,33 +2535,60 @@
         <v>504</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
@@ -2522,6 +2607,9 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="538">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1601,214 +1601,287 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>找货源模块下，公共货源上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，公共货源上的按照体积排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_016_DefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_017_CreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_018_CarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_019_CarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_020_CarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_021_CancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的默认排序功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照信用等级排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照车长排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照车重排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找货源模块下，我的收藏上的按照体积排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGoodsPage_040_SendGoodsAgain_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_041_CheckSendedGoods_Test.java</t>
+  </si>
+  <si>
+    <t>再次发布货源功能检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测已经发布的货源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_111_Login_QuickSearchOrdersForTarget_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_112_Login_QuickSearchOrdersForIncorrect_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_113_Login_QuickSearchOrdersForEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_114_Login_MoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，输入一个指定的订单，然后进行快速查询，页面跳转到我的订单页面，并且搜索出了指定的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，输入一个不合法的订单编号，点击查询，弹出“请输入正确的订单编号”的提示语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单跟踪，进行快速搜索，不输入任何内容点击查询，页面成功跳转到我的订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_115_Login_MoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下（认证用户）点击更多货源，进入查找货源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下（认证用户）点击更多车源，进入查找车源界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下，未认证的用户去查看首页的车源信息，车牌号都应该加上了*号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击定位按钮 应该弹出："您还未通过认证，暂时不能查看司机当前位置"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击收藏按钮，应该收藏成功并且在找车源-我的收藏中有刚才收藏的车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_116_Login_UnattestedUserCheckHomeCars_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_117_Login_UnattestedUserCarsLoc_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_118_Login_UnattestedUserCarsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_119_Login_UnattestedUserCarsCancelFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_120_Login_UnattestedUserGoodsFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_121_Login_UnattestedUserGoodsCancelFav_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_122_Login_CheckGoodsCarsItems_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_123_Login_UnattestedUserGoodsCarsItems_Test.java</t>
+  </si>
+  <si>
+    <t>接着用例118，登录情况下，未认证的用户去点击取消收藏按钮,，应该取消收藏成功，同时在找车源我的收藏模块中不存在此车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证的用户去点击公共货源上的收藏按钮，应该收藏成功并且在找货源-我的收藏中有刚才收藏的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着用例120,在首页直接取消刚才收藏的货源，然后检查 找货源-我的收藏模块中货源应该不存在才对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_017_NotLoginCheckCarsGoodsItems_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录情况下，检测首页的公共货源和公共车源的条数，每个模块最多8条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_102_UnattestedUserAddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_104_UnattestedUserCancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
     <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找货源模块下，公共货源上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照体积排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，在公共货源tab中，收藏该页面所有货源为我的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化测试类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写发货地，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写订单编号，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写货物名称，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的状态下，填写收获公司，检查该状态下搜索结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_016_DefaultSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_017_CreditSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_018_CarLengthSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_019_CarWeightSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_020_CarVolumeSort_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_021_CancelMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照信用等级排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照车长排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照体积排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendGoodsPage_040_SendGoodsAgain_Test.java</t>
-  </si>
-  <si>
-    <t>SendGoodsPage_041_CheckSendedGoods_Test.java</t>
-  </si>
-  <si>
-    <t>再次发布货源功能检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测已经发布的货源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_111_Login_QuickSearchOrdersForTarget_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_112_Login_QuickSearchOrdersForIncorrect_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_113_Login_QuickSearchOrdersForEmpty_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_114_Login_MoreGoods_Test.java</t>
-  </si>
-  <si>
-    <t>订单跟踪，进行快速搜索，输入一个指定的订单，然后进行快速查询，页面跳转到我的订单页面，并且搜索出了指定的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单跟踪，进行快速搜索，输入一个不合法的订单编号，点击查询，弹出“请输入正确的订单编号”的提示语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单跟踪，进行快速搜索，不输入任何内容点击查询，页面成功跳转到我的订单页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_115_Login_MoreCars_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下（认证用户）点击更多货源，进入查找货源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下（认证用户）点击更多车源，进入查找车源界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 登录情况下，未认证的用户去查看首页的车源信息，车牌号都应该加上了*号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下，未认证的用户去点击定位按钮 应该弹出："您还未通过认证，暂时不能查看司机当前位置"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下，未认证的用户去点击收藏按钮，应该收藏成功并且在找车源-我的收藏中有刚才收藏的车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_116_Login_UnattestedUserCheckHomeCars_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_117_Login_UnattestedUserCarsLoc_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_118_Login_UnattestedUserCarsFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_119_Login_UnattestedUserCarsCancelFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_120_Login_UnattestedUserGoodsFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_121_Login_UnattestedUserGoodsCancelFav_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_122_Login_CheckGoodsCarsItems_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_123_Login_UnattestedUserGoodsCarsItems_Test.java</t>
-  </si>
-  <si>
-    <t>接着用例118，登录情况下，未认证的用户去点击取消收藏按钮,，应该取消收藏成功，同时在找车源我的收藏模块中不存在此车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下，未认证的用户去点击公共货源上的收藏按钮，应该收藏成功并且在找货源-我的收藏中有刚才收藏的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接着用例120,在首页直接取消刚才收藏的货源，然后检查 找货源-我的收藏模块中货源应该不存在才对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证的用户登录之后，检测首页的公共车源和公共货源的 的分别最多条数是8条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_017_NotLoginCheckCarsGoodsItems_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录情况下，检测首页的公共货源和公共车源的条数，每个模块最多8条数据</t>
+    <t>FindGoodsPagePrivateGoods_103_UnattestedUserUserInfoCheck_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，隐藏信息的检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_101_UnattestedUserCheckCollection_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，收藏的货源在我的收藏中查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，收藏当前页面的搜索货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，取消我的收藏页面中当前所有收藏的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_101_UnattestedUserUITestCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_102_UnattestedUserInfoCheck_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的货源UI和文字检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，隐藏信息的检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyGoodsPage_102_UnattestedUserNoInfo_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_101_UnattestedUserUITextCheck_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的货源界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的货源界面无数据的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_101_UnattestedUserUITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_102_UnattestedUserNoInfo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的订单无数据的提示信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1952,7 +2025,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1994,7 +2067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2029,7 +2102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2388,10 +2461,10 @@
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -2484,106 +2557,106 @@
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -3763,18 +3836,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -4042,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4207,8 +4280,20 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4568,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4590,7 +4675,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -4711,7 +4796,7 @@
         <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -4719,7 +4804,7 @@
         <v>446</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -4743,7 +4828,7 @@
         <v>449</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -4751,194 +4836,238 @@
         <v>445</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B23" s="8"/>
+      <c r="A23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>316</v>
+      <c r="A24" t="s">
+        <v>527</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>465</v>
-      </c>
+      <c r="A25" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>478</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>479</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4971,7 +5100,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -5399,10 +5528,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5413,10 +5542,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5432,7 +5561,7 @@
         <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -5480,7 +5609,7 @@
         <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -5488,7 +5617,7 @@
         <v>431</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5512,7 +5641,23 @@
         <v>434</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="542">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1882,6 +1882,20 @@
   </si>
   <si>
     <t>已登录的情况下，未认证的用户登录，我的订单无数据的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_201_Public_CheckCarsInfoForUnattestedUser_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_202_Private_CheckCarsInfoForUnattestedUser_Test.java</t>
+  </si>
+  <si>
+    <t>未认证用户在找车源-公共车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户在找车源-我收藏的车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2025,7 +2039,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2067,7 +2081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2102,7 +2116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4304,10 +4318,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4642,6 +4656,22 @@
       </c>
       <c r="B41" s="5" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -5530,7 +5560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="568">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1896,6 +1896,97 @@
   </si>
   <si>
     <t>未认证用户在找车源-我收藏的车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_124_Login_UnattestedUserFindCarsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_125_Login_UnattestedUserFindGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_126_Login_UnattestedUserMyGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_127_Login_UnattestedUserMyOrdersTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_128_Login_UnattestedUserQuickSearchCarsOnlyFrom_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_129_Login_UnattestedUserQuickSearchCarsToOnly_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_130_Login_UnattestedUserQuickSearchCarsAll_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_131_Login_UnattestedUserQuickSearchGoodsOnlyFrom_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_134_Login_UnattestedUserQuickSearchOrdersForTarget_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_135_Login_UnattestedQuickSearchOrdersForIncorrect_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_136_Login_UnattestedQuickSearchOrdersForEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_137_Login_UnattestedMoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_138_Login_UnattestedMoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击找车源，成功进入找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击找货源，成功进入找货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击我的货源，成功进入我的货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击我的订单，成功进入我的订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 进行快速查找车源操作，只输入出发地，筛选后正确跳转到找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找车源操作，只输入目的地，页面正确跳转到找车源页面并查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找车源操作，输入出发地和目的地，点击查询按钮后页面跳转到找车源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入发货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户，进行快速查找订单的操作，未认证用户应该有此权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找订单操作，输入一个不合法的订单编号，点击查询会弹出提示语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找订单，但是不输任何内容点击查询，未认证用户有权操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户点击公共货源上的 "更多&gt;&gt;" 进入找货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证用户点击公共车源上的 "更多&gt;&gt;" 进入找车源页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1952,7 +2043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1975,28 +2066,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2006,9 +2084,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2017,9 +2092,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2325,23 +2399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B60" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.875" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="57.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2349,7 +2423,7 @@
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2357,7 +2431,7 @@
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2365,7 +2439,7 @@
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2373,7 +2447,7 @@
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2381,7 +2455,7 @@
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2389,7 +2463,7 @@
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2397,7 +2471,7 @@
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2405,15 +2479,15 @@
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2421,7 +2495,7 @@
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2429,7 +2503,7 @@
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2437,7 +2511,7 @@
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2445,15 +2519,15 @@
       <c r="A14" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2461,7 +2535,7 @@
       <c r="A16" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2469,7 +2543,7 @@
       <c r="A17" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2477,7 +2551,7 @@
       <c r="A18" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>516</v>
       </c>
     </row>
@@ -2485,7 +2559,7 @@
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>450</v>
       </c>
     </row>
@@ -2493,7 +2567,7 @@
       <c r="A20" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2501,7 +2575,7 @@
       <c r="A21" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2509,7 +2583,7 @@
       <c r="A22" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2517,7 +2591,7 @@
       <c r="A23" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2525,7 +2599,7 @@
       <c r="A24" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2533,7 +2607,7 @@
       <c r="A25" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2541,7 +2615,7 @@
       <c r="A26" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2549,7 +2623,7 @@
       <c r="A27" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -2557,7 +2631,7 @@
       <c r="A28" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -2565,7 +2639,7 @@
       <c r="A29" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2573,7 +2647,7 @@
       <c r="A30" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>493</v>
       </c>
     </row>
@@ -2581,7 +2655,7 @@
       <c r="A31" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>494</v>
       </c>
     </row>
@@ -2589,7 +2663,7 @@
       <c r="A32" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>495</v>
       </c>
     </row>
@@ -2597,7 +2671,7 @@
       <c r="A33" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>497</v>
       </c>
     </row>
@@ -2605,7 +2679,7 @@
       <c r="A34" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>498</v>
       </c>
     </row>
@@ -2613,7 +2687,7 @@
       <c r="A35" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>499</v>
       </c>
     </row>
@@ -2621,7 +2695,7 @@
       <c r="A36" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>500</v>
       </c>
     </row>
@@ -2629,7 +2703,7 @@
       <c r="A37" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>501</v>
       </c>
     </row>
@@ -2637,7 +2711,7 @@
       <c r="A38" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>510</v>
       </c>
     </row>
@@ -2645,7 +2719,7 @@
       <c r="A39" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>511</v>
       </c>
     </row>
@@ -2653,7 +2727,7 @@
       <c r="A40" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2661,43 +2735,125 @@
       <c r="A41" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2720,10 +2876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2777,380 +2933,380 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.625" customWidth="1"/>
-    <col min="2" max="2" width="44.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="8"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="8"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="8"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="8"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="8"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3173,340 +3329,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3524,601 +3680,601 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="67.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="67.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4138,166 +4294,166 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="63.5" customWidth="1"/>
-    <col min="2" max="2" width="68.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="68.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>532</v>
       </c>
     </row>
@@ -4305,7 +4461,7 @@
       <c r="A21" t="s">
         <v>530</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>533</v>
       </c>
     </row>
@@ -4320,357 +4476,357 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="79.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="55.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="79.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4696,176 +4852,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4873,7 +5029,7 @@
       <c r="A23" t="s">
         <v>526</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4881,221 +5037,221 @@
       <c r="A24" t="s">
         <v>527</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="5" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5117,438 +5273,438 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="65.25" customWidth="1"/>
-    <col min="2" max="2" width="66.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="66.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="8"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5571,10 +5727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>466</v>
       </c>
     </row>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="600">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1987,6 +1987,118 @@
   </si>
   <si>
     <t>登录情况下，未认证用户点击公共车源上的 "更多&gt;&gt;" 进入找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_132_Login_UnattestedUserQuickSearchGoodsOnlyTo_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_133_Login_UnattestedUserQuickSearchGoodsAll_Test.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找货源操作，输入发货地和收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_203_UnattestedUserUITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_204_Public_UnattestedUserAllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>未认证的用户登录以后，检查找车源页面的UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户登录情况下，在找车源页面输入所有内容进行检索，未认证用户有权限做此操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_205_Public_UnattestedFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_206_Public_UnattestedStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_207_Public_UnattestedEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_208_Public_UnattestedStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_209_Public_UnattestedCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_210_Public_UnattestedStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_211_Public_UnattestedEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_212_Public_UnattestedAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_213_Public_UnattestedStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_214_Public_UnattestedEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_215_Public_UnattestedAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_216_Public_UnattestedTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆出发地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的开始车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的类型，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的目的地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2401,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B60" sqref="B59:B60"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2811,8 +2923,22 @@
         <v>562</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>550</v>
@@ -4474,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A61" sqref="A59:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4828,6 +4954,118 @@
       </c>
       <c r="B43" s="3" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="646">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2227,6 +2227,48 @@
   </si>
   <si>
     <t>PensonCenterPage_009_UnattestedUserSkipFindGoodsMyFavo_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_217_UnattestedFavoriteCarsWithNoSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_218_UnattestedFavoriteCarsWithSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_219_UnattestedCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_220_UnattestedDismissCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_221_UnattestedAcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，在找车源-公共车源页面进行收藏车源的操作，可以收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源页面进行车源搜索，然后搜索的车源中收藏 某条车源，可以收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在公共车源列表中取消收藏车源，不会弹出确认取消收藏的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在此提示框上点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在提示框上点击确认按钮，检查是不是取消成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_222_UnattestedPrivateAllDataInputSearch_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入所有输入条件之后进行搜索，可以准确查出正确的数据</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2408,7 +2450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2443,7 +2485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2744,7 +2786,7 @@
       </c>
       <c r="B9">
         <f>COUNTA(找车源!A2:A1000)</f>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2780,12 +2822,13 @@
       </c>
       <c r="B14" s="12">
         <f>SUM(B2:B12)</f>
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3095,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5567,10 +5610,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6033,6 +6076,54 @@
       </c>
       <c r="B57" s="3" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="686">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2269,6 +2269,146 @@
   </si>
   <si>
     <t>未认证用户，在找车源-我的收藏模块中，输入所有输入条件之后进行搜索，可以准确查出正确的数据</t>
+  </si>
+  <si>
+    <t>FindCarsPage_223_UnattestedPrivateFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_224_UnattestedPrivateStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_225_UnattestedPrivateEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_226_UnattestedPrivateStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_227_UnattestedPrivateCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_228_UnattestedPrivateStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_229_UnattestedPrivateEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_230_UnattestedPrivateAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_231_UnattestedPrivateStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_232_UnatestedPrivateEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_233_UnattestedPrivateAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_234_UnattestedPrivateTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_235_UnattestedPublicSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_236_UnattestedPublicSortByCarLength_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_237_UnattestedPublicSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_238_UnattestedPublicSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_239_UnattestedPrivateSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_240_UnattestedPrivateSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_241_UnattestedPrivateSortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_242_UnattestedPrivateSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入发货地检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入车型检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，在找车源-我的收藏模块中，输入开始和结束吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入车辆目的地，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照载重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照容积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照容积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，进入找车源-我的收藏中，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照载重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2786,7 +2926,7 @@
       </c>
       <c r="B9">
         <f>COUNTA(找车源!A2:A1000)</f>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2822,7 +2962,7 @@
       </c>
       <c r="B14" s="12">
         <f>SUM(B2:B12)</f>
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5610,10 +5750,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6118,12 +6258,172 @@
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>644</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="758">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1552,14 +1552,6 @@
     <t>FindGoodsPagePublicGoods_016_DefaultSort_Test.java</t>
   </si>
   <si>
-    <t>找货源模块下，公共货源上的按照信用等级排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照车长排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_019_CarWeightSort_Test.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1603,18 +1595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找货源模块下，公共货源上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，公共货源上的按照体积排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的情况下，点击首页查找货源tab,点击我的收藏，检查货源界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1665,26 +1645,6 @@
     <t>FindGoodsPagePrivateGoods_021_CancelMyFavoriteGoods_Test.java</t>
   </si>
   <si>
-    <t>找货源模块下，我的收藏上的默认排序功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照信用等级排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照车长排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照车重排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找货源模块下，我的收藏上的按照体积排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SendGoodsPage_040_SendGoodsAgain_Test.java</t>
   </si>
   <si>
@@ -1806,609 +1766,853 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindGoodsPagePrivateGoods_102_UnattestedUserAddMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
-    <t>FindGoodsPagePrivateGoods_104_UnattestedUserCancelMyFavoriteGoods_Test.java</t>
-  </si>
-  <si>
     <t>已登录的情况下，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindGoodsPagePrivateGoods_103_UnattestedUserUserInfoCheck_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的情况下，未认证的用户登录，隐藏信息的检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FindGoodsPagePrivateGoods_101_UnattestedUserCheckCollection_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，收藏的货源在我的收藏中查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，收藏当前页面的搜索货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，取消我的收藏页面中当前所有收藏的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FindGoodsPagePublicGoods_101_UnattestedUserUITestCheck_Test.java</t>
   </si>
   <si>
     <t>FindGoodsPagePublicGoods_102_UnattestedUserInfoCheck_Test.java</t>
   </si>
   <si>
+    <t>MyGoodsPage_102_UnattestedUserNoInfo_Test.java</t>
+  </si>
+  <si>
+    <t>MyGoodsPage_101_UnattestedUserUITextCheck_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的货源界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的货源界面无数据的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrdersPage_101_UnattestedUserUITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>MyOrdersPage_102_UnattestedUserNoInfo_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的订单UI、文本测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的订单无数据的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_201_Public_CheckCarsInfoForUnattestedUser_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_202_Private_CheckCarsInfoForUnattestedUser_Test.java</t>
+  </si>
+  <si>
+    <t>未认证用户在找车源-公共车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户在找车源-我收藏的车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_124_Login_UnattestedUserFindCarsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_125_Login_UnattestedUserFindGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_126_Login_UnattestedUserMyGoodsTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_127_Login_UnattestedUserMyOrdersTabClick_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_128_Login_UnattestedUserQuickSearchCarsOnlyFrom_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_129_Login_UnattestedUserQuickSearchCarsToOnly_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_130_Login_UnattestedUserQuickSearchCarsAll_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_131_Login_UnattestedUserQuickSearchGoodsOnlyFrom_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_134_Login_UnattestedUserQuickSearchOrdersForTarget_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_135_Login_UnattestedQuickSearchOrdersForIncorrect_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_136_Login_UnattestedQuickSearchOrdersForEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_137_Login_UnattestedMoreGoods_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_138_Login_UnattestedMoreCars_Test.java</t>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击找车源，成功进入找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击找货源，成功进入找货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击我的货源，成功进入我的货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 点击我的订单，成功进入我的订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户 进行快速查找车源操作，只输入出发地，筛选后正确跳转到找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找车源操作，只输入目的地，页面正确跳转到找车源页面并查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找车源操作，输入出发地和目的地，点击查询按钮后页面跳转到找车源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入发货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户，进行快速查找订单的操作，未认证用户应该有此权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找订单操作，输入一个不合法的订单编号，点击查询会弹出提示语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找订单，但是不输任何内容点击查询，未认证用户有权操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下,未认证用户点击公共货源上的 "更多&gt;&gt;" 进入找货源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下，未认证用户点击公共车源上的 "更多&gt;&gt;" 进入找车源页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage_132_Login_UnattestedUserQuickSearchGoodsOnlyTo_Test.java</t>
+  </si>
+  <si>
+    <t>HomePage_133_Login_UnattestedUserQuickSearchGoodsAll_Test.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下 未认证用户进行快速查找货源操作，输入发货地和收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_203_UnattestedUserUITextCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_204_Public_UnattestedUserAllDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>未认证的用户登录以后，检查找车源页面的UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户登录情况下，在找车源页面输入所有内容进行检索，未认证用户有权限做此操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_205_Public_UnattestedFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_206_Public_UnattestedStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_207_Public_UnattestedEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_208_Public_UnattestedStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_209_Public_UnattestedCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_210_Public_UnattestedStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_211_Public_UnattestedEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_212_Public_UnattestedAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_213_Public_UnattestedStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_214_Public_UnattestedEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_215_Public_UnattestedAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_216_Public_UnattestedTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆出发地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的开始车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的类型，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的目的地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_013_Fail_RegisteredMembers_Username_Test.java</t>
+  </si>
+  <si>
+    <t>注册失败：只输入用户名不输入密码 点击登陆会提示“密码长度为6-20个字符”</t>
+  </si>
+  <si>
+    <t>找货源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PensonCenterPage_002_UnattestedUserSkipMyGoodsNewGoods_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_003_UnattestedUserSkipMyGoodsInvalidGoods_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_004_UnattestedUserSkipMyGoodsAllGoods_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_005_UnattestedUserSkipMyOrdersNewOrders_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_006_UnattestedUserSkipMyOrdersPendingPayment_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_001_UnattestedUserUITextCheck_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，我的订单UI、文本测试</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的货源中新货源，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的货源中已失效货源，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的货源中累计发布，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的订单中待评价，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏中车辆，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏中货源，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的订单中待收款，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的订单中新订单，查看连接跳转并检查状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PensonCenterPage_007_UnattestedUserSkipMyOrdersToBeEvaluated_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_008_UnattestedUserSkipFindCarsMyFavo_Test.java</t>
+  </si>
+  <si>
+    <t>PensonCenterPage_009_UnattestedUserSkipFindGoodsMyFavo_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_217_UnattestedFavoriteCarsWithNoSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_218_UnattestedFavoriteCarsWithSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_219_UnattestedCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_220_UnattestedDismissCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_221_UnattestedAcceptCancelFavoriteCars_Test.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，在找车源-公共车源页面进行收藏车源的操作，可以收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源页面进行车源搜索，然后搜索的车源中收藏 某条车源，可以收藏成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在公共车源列表中取消收藏车源，不会弹出确认取消收藏的提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在此提示框上点击取消按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在提示框上点击确认按钮，检查是不是取消成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCarsPage_222_UnattestedPrivateAllDataInputSearch_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入所有输入条件之后进行搜索，可以准确查出正确的数据</t>
+  </si>
+  <si>
+    <t>FindCarsPage_223_UnattestedPrivateFromDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_224_UnattestedPrivateStartCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_225_UnattestedPrivateEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_226_UnattestedPrivateStartEndCarLengthDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_227_UnattestedPrivateCarTypeDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_228_UnattestedPrivateStartCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_229_UnattestedPrivateEndCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_230_UnattestedPrivateAllCarWeightDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_231_UnattestedPrivateStartCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_232_UnatestedPrivateEndCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_233_UnattestedPrivateAllCarVolDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_234_UnattestedPrivateTargetCityDataInputSearch_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_235_UnattestedPublicSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_236_UnattestedPublicSortByCarLength_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_237_UnattestedPublicSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_238_UnattestedPublicSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_239_UnattestedPrivateSortByCarVolume_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_240_UnattestedPrivateSortByCredit_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_241_UnattestedPrivateSortByCarLenght_Test.java</t>
+  </si>
+  <si>
+    <t>FindCarsPage_242_UnattestedPrivateSortByCarWeight_Test.java</t>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入发货地检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束车长检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入车型检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，在找车源-我的收藏模块中，输入开始和结束吨位检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入结束体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束体积检索条件，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，在找车源-我的收藏模块中，输入车辆目的地，可以准确查出正确的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照载重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-公共车源中，按照容积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照容积排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户，进入找车源-我的收藏中，按照信用等级排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照车长排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户，进入找车源-我的收藏中，按照载重排序车源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_100_UnattestedUserCheckCollection_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_101_UnattestedUserAddMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_102_UnattestedUserUserInfoCheck_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_103_UnattestedUserSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_104_UnattestedUserSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_105_UnattestedUserSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_106_UnattestedUserMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_107_UnattestedUserMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_108_UnattestedUserAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_109_UnattestedUserCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_110_UnattestedUserMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_111_UnattestedUserMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_112_UnattestedUserAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_113_UnattestedUserMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_114_UnattestedUserMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_115_UnattestedUserAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_116_UnattestedUserDefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_117_UnattestedUserCreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_118_UnattestedUserCarLongSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_119_UnattestedUserCarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_120_UnattestedUserCarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePrivateGoods_121_UnattestedUserCancelMyFavoriteGoods_Test.java</t>
+  </si>
+  <si>
     <t>已登录的情况下，未认证的用户登录，我的货源UI和文字检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已登录的情况下，未认证的用户登录，隐藏信息的检验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyGoodsPage_102_UnattestedUserNoInfo_Test.java</t>
-  </si>
-  <si>
-    <t>MyGoodsPage_101_UnattestedUserUITextCheck_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，我的货源界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，我的货源界面无数据的提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyOrdersPage_101_UnattestedUserUITextCheck_Test.java</t>
-  </si>
-  <si>
-    <t>MyOrdersPage_102_UnattestedUserNoInfo_Test.java</t>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，我的订单UI、文本测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，我的订单无数据的提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_201_Public_CheckCarsInfoForUnattestedUser_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_202_Private_CheckCarsInfoForUnattestedUser_Test.java</t>
-  </si>
-  <si>
-    <t>未认证用户在找车源-公共车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户在找车源-我收藏的车源中查看司机的信息 ，相关信息被隐藏不能够查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_124_Login_UnattestedUserFindCarsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_125_Login_UnattestedUserFindGoodsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_126_Login_UnattestedUserMyGoodsTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_127_Login_UnattestedUserMyOrdersTabClick_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_128_Login_UnattestedUserQuickSearchCarsOnlyFrom_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_129_Login_UnattestedUserQuickSearchCarsToOnly_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_130_Login_UnattestedUserQuickSearchCarsAll_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_131_Login_UnattestedUserQuickSearchGoodsOnlyFrom_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_134_Login_UnattestedUserQuickSearchOrdersForTarget_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_135_Login_UnattestedQuickSearchOrdersForIncorrect_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_136_Login_UnattestedQuickSearchOrdersForEmpty_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_137_Login_UnattestedMoreGoods_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_138_Login_UnattestedMoreCars_Test.java</t>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户 点击找车源，成功进入找车源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户 点击找货源，成功进入找货源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户 点击我的货源，成功进入我的货源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户 点击我的订单，成功进入我的订单页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户 进行快速查找车源操作，只输入出发地，筛选后正确跳转到找车源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户进行快速查找车源操作，只输入目的地，页面正确跳转到找车源页面并查询出了正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户进行快速查找车源操作，输入出发地和目的地，点击查询按钮后页面跳转到找车源页面并且查询出了正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入发货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户，进行快速查找订单的操作，未认证用户应该有此权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户进行快速查找订单操作，输入一个不合法的订单编号，点击查询会弹出提示语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户进行快速查找订单，但是不输任何内容点击查询，未认证用户有权操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下,未认证用户点击公共货源上的 "更多&gt;&gt;" 进入找货源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下，未认证用户点击公共车源上的 "更多&gt;&gt;" 进入找车源页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomePage_132_Login_UnattestedUserQuickSearchGoodsOnlyTo_Test.java</t>
-  </si>
-  <si>
-    <t>HomePage_133_Login_UnattestedUserQuickSearchGoodsAll_Test.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 登录情况下 未认证用户进行快速查找货源操作，只输入收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录情况下 未认证用户进行快速查找货源操作，输入发货地和收货地，点击查询按钮之后，页面跳转到找货源页面并且查询出了正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_203_UnattestedUserUITextCheck_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_204_Public_UnattestedUserAllDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>未认证的用户登录以后，检查找车源页面的UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户登录情况下，在找车源页面输入所有内容进行检索，未认证用户有权限做此操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_205_Public_UnattestedFromDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_206_Public_UnattestedStartCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_207_Public_UnattestedEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_208_Public_UnattestedStartEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_209_Public_UnattestedCarTypeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_210_Public_UnattestedStartCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_211_Public_UnattestedEndCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_212_Public_UnattestedAllCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_213_Public_UnattestedStartCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_214_Public_UnattestedEndCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_215_Public_UnattestedAllCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_216_Public_UnattestedTargetCityDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆出发地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的开始车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：只输入车辆的结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束车长属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的类型，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束载重属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的开始和结束容积属性，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，在找车源页面进行检索操作：输入车辆的目的地，点击查询按钮之后 未认证用户会得到查询列表并且结果正确（有权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_013_Fail_RegisteredMembers_Username_Test.java</t>
-  </si>
-  <si>
-    <t>注册失败：只输入用户名不输入密码 点击登陆会提示“密码长度为6-20个字符”</t>
-  </si>
-  <si>
-    <t>找货源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PensonCenterPage_002_UnattestedUserSkipMyGoodsNewGoods_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_003_UnattestedUserSkipMyGoodsInvalidGoods_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_004_UnattestedUserSkipMyGoodsAllGoods_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_005_UnattestedUserSkipMyOrdersNewOrders_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_006_UnattestedUserSkipMyOrdersPendingPayment_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_001_UnattestedUserUITextCheck_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，我的订单UI、文本测试</t>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的货源中新货源，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的货源中已失效货源，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的货源中累计发布，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的订单中待评价，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的收藏中车辆，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的收藏中货源，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的订单中待收款，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已登录的情况下，未认证的用户登录，点击我的订单中新订单，查看连接跳转并检查状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PensonCenterPage_007_UnattestedUserSkipMyOrdersToBeEvaluated_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_008_UnattestedUserSkipFindCarsMyFavo_Test.java</t>
-  </si>
-  <si>
-    <t>PensonCenterPage_009_UnattestedUserSkipFindGoodsMyFavo_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_217_UnattestedFavoriteCarsWithNoSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_218_UnattestedFavoriteCarsWithSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_219_UnattestedCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_220_UnattestedDismissCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_221_UnattestedAcceptCancelFavoriteCars_Test.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 未认证用户，在找车源-公共车源页面进行收藏车源的操作，可以收藏成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源页面进行车源搜索，然后搜索的车源中收藏 某条车源，可以收藏成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，收藏的车源，在公共车源列表中取消收藏车源，不会弹出确认取消收藏的提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在此提示框上点击取消按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户，收藏的车源，在我的车源列表中取消收藏车源，会弹出确认取消收藏的提示框，然后在提示框上点击确认按钮，检查是不是取消成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindCarsPage_222_UnattestedPrivateAllDataInputSearch_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入所有输入条件之后进行搜索，可以准确查出正确的数据</t>
-  </si>
-  <si>
-    <t>FindCarsPage_223_UnattestedPrivateFromDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_224_UnattestedPrivateStartCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_225_UnattestedPrivateEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_226_UnattestedPrivateStartEndCarLengthDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_227_UnattestedPrivateCarTypeDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_228_UnattestedPrivateStartCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_229_UnattestedPrivateEndCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_230_UnattestedPrivateAllCarWeightDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_231_UnattestedPrivateStartCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_232_UnatestedPrivateEndCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_233_UnattestedPrivateAllCarVolDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_234_UnattestedPrivateTargetCityDataInputSearch_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_235_UnattestedPublicSortByCredit_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_236_UnattestedPublicSortByCarLength_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_237_UnattestedPublicSortByCarWeight_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_238_UnattestedPublicSortByCarVolume_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_239_UnattestedPrivateSortByCarVolume_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_240_UnattestedPrivateSortByCredit_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_241_UnattestedPrivateSortByCarLenght_Test.java</t>
-  </si>
-  <si>
-    <t>FindCarsPage_242_UnattestedPrivateSortByCarWeight_Test.java</t>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入发货地检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入开始车长检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入结束车长检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束车长检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入车型检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入开始吨位检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入结束吨位检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 未认证用户，在找车源-我的收藏模块中，输入开始和结束吨位检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入开始体积检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入结束体积检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入开始和结束体积检索条件，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，在找车源-我的收藏模块中，输入车辆目的地，可以准确查出正确的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-公共车源中，按照信用等级排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-公共车源中，按照车长排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-公共车源中，按照载重排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-公共车源中，按照容积排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-我的收藏中，按照容积排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 未认证用户，进入找车源-我的收藏中，按照信用等级排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-我的收藏中，按照车长排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证用户，进入找车源-我的收藏中，按照载重排序车源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>已登录的情况下，未认证的用户登录，从公共货源添加当前页面所有货源为我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入最小车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入最大车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入货车类型，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，找货源模块下，公共货源上的默认排序功能</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，找货源模块下，公共货源上的按照信用等级排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，找货源模块下，公共货源上的按照车长排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，找货源模块下，公共货源上的按照车重排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，找货源模块下，公共货源上的按照体积排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，取消我的收藏页面中当前所有收藏的货源</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_103_UnattestedUserSendFrom_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_104_UnattestedUserSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_105_UnattestedUserSendFromAndSendTo_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_106_UnattestedUserMinCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_107_UnattestedUserMaxCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_108_UnattestedUserAllCarLong_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_109_UnattestedUserCarType_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_110_UnattestedUserMinWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_111_UnattestedUserMaxWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_112_UnattestedUserAllWeightData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_113_UnattestedUserMinVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_114_UnattestedUserMaxVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_115_UnattestedUserAllVolumeData_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_116_UnattestedUserDefaultSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_117_UnattestedUserCreditSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_118_UnattestedUserCarLengthSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_119_UnattestedUserCarWeightSort_Test.java</t>
+  </si>
+  <si>
+    <t>FindGoodsPagePublicGoods_120_UnattestedUserCarVolumeSort_Test.java</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击我的收藏，在搜索条件下输入发货地，检查搜索结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，我的货源UI和文字检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，隐藏信息中只有认证之后才能看到的信息，隐藏信息的检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入发货地，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入发货地和收货地址，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入最小车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入最大车长，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入车长的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下输入货车类型，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择重量输入最小重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择重量输入最大重量，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择重量输入重量的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择体积输入最小体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择体积输入最大体积，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源，在搜索条件下选择体积输入体积的一个区间，检查搜索结果</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源下，找货源模块，公共货源上的默认排序功能</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源下，找货源模块，公共货源上的按照信用等级排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源下，找货源模块，公共货源上的按照车长排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源下，找货源模块，公共货源上的按照车重排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，未认证的用户登录，点击公共货源下，找货源模块，公共货源上的按照体积排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击公共货源下，找货源模块，公共货源上的默认排序功能</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击公共货源下，找货源模块，公共货源上的按照信用等级排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击公共货源下，找货源模块，公共货源上的按照车长排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击公共货源下，找货源模块，公共货源上的按照车重排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击公共货源下，找货源模块，公共货源上的按照体积排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的默认排序功能</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的按照信用等级排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的按照车长排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的按照车重排序</t>
+  </si>
+  <si>
+    <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的按照体积排序</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2496,11 +2700,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2530,6 +2745,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2548,7 +2764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2590,7 +2806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2625,7 +2841,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2848,15 +3064,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="B2">
         <f>COUNTA(首页!A2:A1000)</f>
@@ -2865,7 +3081,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="B3">
         <f>COUNTA(注册!A2:A1000)</f>
@@ -2874,7 +3090,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="B4">
         <f>COUNTA(登录!A2:A1000)</f>
@@ -2883,7 +3099,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="B5">
         <f>COUNTA(完善用户信息!A2:A999)</f>
@@ -2892,19 +3108,19 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="B6">
         <f>COUNTA(发布货源!A2:A1000)</f>
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="B7">
         <f>COUNTA(我的货源!A2:A1000)</f>
@@ -2913,16 +3129,16 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="B8">
-        <f>COUNTA(找货源!A2:A1000)-2</f>
-        <v>48</v>
+        <f>COUNTA(找货源!A2:A1018)-2</f>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="B9">
         <f>COUNTA(找车源!A2:A1000)</f>
@@ -2931,7 +3147,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="B10">
         <f>COUNTA(我的订单!A2:A1000)</f>
@@ -2940,7 +3156,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="B11">
         <f>COUNTA(个人中心!A2:A1000)</f>
@@ -2949,7 +3165,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="B12">
         <f>COUNTA(公司信息!A2:A1000)</f>
@@ -2958,11 +3174,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="B14" s="12">
         <f>SUM(B2:B12)</f>
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2988,10 +3204,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -3007,7 +3223,7 @@
         <v>424</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -3055,7 +3271,7 @@
         <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -3063,7 +3279,7 @@
         <v>431</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -3087,23 +3303,23 @@
         <v>434</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3137,74 +3353,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="B7" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="B9" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3424,10 +3640,10 @@
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -3435,7 +3651,7 @@
         <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -3520,226 +3736,226 @@
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3870,10 +4086,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -4198,10 +4414,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5282,18 +5498,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -5727,18 +5943,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5752,8 +5968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6092,338 +6308,338 @@
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -6435,21 +6651,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="74.75" customWidth="1"/>
-    <col min="2" max="2" width="66.75" customWidth="1"/>
+    <col min="1" max="1" width="74.5" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6457,7 +6673,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -6498,7 +6714,7 @@
         <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -6514,7 +6730,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -6522,7 +6738,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -6538,7 +6754,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -6546,7 +6762,7 @@
         <v>163</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -6562,7 +6778,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6578,7 +6794,7 @@
         <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -6586,7 +6802,7 @@
         <v>446</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>460</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -6594,7 +6810,7 @@
         <v>443</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>447</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6602,15 +6818,15 @@
         <v>444</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>448</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>461</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -6618,237 +6834,527 @@
         <v>445</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>462</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>525</v>
+      <c r="A23" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>527</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>526</v>
+      <c r="A24" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>528</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>316</v>
+        <v>710</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>463</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>317</v>
+        <v>711</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>464</v>
+        <v>732</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>318</v>
+        <v>712</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>332</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>319</v>
+        <v>713</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>333</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>320</v>
+        <v>714</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>334</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>321</v>
+        <v>715</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>335</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>322</v>
+        <v>716</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>336</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>323</v>
+        <v>717</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>337</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>324</v>
+        <v>718</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>338</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>325</v>
+        <v>719</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>339</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>326</v>
+        <v>720</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>340</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>327</v>
+        <v>721</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>341</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>328</v>
+        <v>722</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>342</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>329</v>
+        <v>723</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>343</v>
+        <v>744</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>330</v>
+        <v>724</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>344</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>331</v>
+        <v>725</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>345</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>471</v>
+        <v>726</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>473</v>
+        <v>316</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>474</v>
+        <v>317</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>475</v>
+        <v>318</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>481</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>476</v>
+        <v>319</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>521</v>
+        <v>320</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>516</v>
+        <v>321</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>523</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>519</v>
+        <v>322</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>520</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>517</v>
+        <v>323</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>524</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B67" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2130,10 +2130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已登录的情况下，未认证的用户登录，点击我的收藏中货源，查看连接跳转并检查状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2613,6 +2609,18 @@
   </si>
   <si>
     <t>已登录的情况下，点击我的收藏下，找货源模块，我的收藏上的按照体积排序</t>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2645,10 +2653,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2740,12 +2747,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2764,7 +2769,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2806,7 +2811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2841,7 +2846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3050,10 +3055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3062,124 +3067,450 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <f>COUNTA(首页!A2:A1000)</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <f>COUNTA(注册!A2:A1000)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <f>COUNTA(完善用户信息!A2:A999)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <f>COUNTA(发布货源!A2:A1000)</f>
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="12">
         <f>COUNTA(我的货源!A2:A1000)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <f>COUNTA(找货源!A2:A1018)-2</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <f>COUNTA(找车源!A2:A1000)</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <f>COUNTA(我的订单!A2:A1000)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <f>COUNTA(个人中心!A2:A1000)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <f>COUNTA(公司信息!A2:A1000)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <f>SUM(B2:B12)</f>
         <v>366</v>
       </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,7 +3719,7 @@
         <v>599</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -3396,12 +3727,12 @@
         <v>600</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B8" t="s">
         <v>606</v>
@@ -3409,7 +3740,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s">
         <v>607</v>
@@ -3417,10 +3748,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3492,9 +3823,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3959,6 +4292,11 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3970,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6436,210 +6774,210 @@
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -6653,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD44"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6802,7 +7140,7 @@
         <v>446</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -6810,7 +7148,7 @@
         <v>443</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -6818,7 +7156,7 @@
         <v>444</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -6826,7 +7164,7 @@
         <v>447</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -6834,7 +7172,7 @@
         <v>445</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -6842,7 +7180,7 @@
         <v>508</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -6850,151 +7188,151 @@
         <v>509</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -7136,7 +7474,7 @@
         <v>466</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -7144,7 +7482,7 @@
         <v>467</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -7152,7 +7490,7 @@
         <v>468</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -7160,7 +7498,7 @@
         <v>469</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -7168,7 +7506,7 @@
         <v>470</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -7181,23 +7519,23 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B67" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>507</v>
@@ -7205,156 +7543,156 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>708</v>
+        <v>687</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,12 +20,12 @@
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="761">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2620,6 +2620,10 @@
   </si>
   <si>
     <t>本周Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.12.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2769,7 +2773,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2811,7 +2815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2846,7 +2850,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3058,7 +3062,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3096,8 +3100,13 @@
         <f>COUNTA(首页!A2:A1000)</f>
         <v>56</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="12">
+        <f>COUNTA(首页!A58:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -3114,8 +3123,13 @@
         <f>COUNTA(注册!A2:A1000)</f>
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="12">
+        <f>COUNTA(注册!A15:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -3132,8 +3146,13 @@
         <f>COUNTA(登录!A2:A1000)</f>
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="12">
+        <f>COUNTA(登录!A11:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3147,11 +3166,16 @@
         <v>585</v>
       </c>
       <c r="B5" s="12">
-        <f>COUNTA(完善用户信息!A2:A999)</f>
+        <f>COUNTA(完善用户信息!A2:A1000)</f>
         <v>34</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="12">
+        <f>COUNTA(完善用户信息!A36:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3168,8 +3192,13 @@
         <f>COUNTA(发布货源!A2:A1000)</f>
         <v>41</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="12">
+        <f>COUNTA(发布货源!A43:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3186,8 +3215,13 @@
         <f>COUNTA(我的货源!A2:A1000)</f>
         <v>20</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="12">
+        <f>COUNTA(我的货源!A22:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3201,11 +3235,16 @@
         <v>594</v>
       </c>
       <c r="B8" s="12">
-        <f>COUNTA(找货源!A2:A1018)-2</f>
+        <f>COUNTA(找货源!A2:A1000)-2</f>
         <v>84</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="12">
+        <f>COUNTA(找货源!A86:A1000)-2</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3222,8 +3261,13 @@
         <f>COUNTA(找车源!A2:A1000)</f>
         <v>82</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="12">
+        <f>COUNTA(找车源!A84:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -3240,8 +3284,13 @@
         <f>COUNTA(我的订单!A2:A1000)</f>
         <v>14</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="12">
+        <f>COUNTA(我的订单!A16:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3258,8 +3307,13 @@
         <f>COUNTA(个人中心!A2:A1000)</f>
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="12">
+        <f>COUNTA(个人中心!A11:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3276,8 +3330,13 @@
         <f>COUNTA(公司信息!A2:A1000)</f>
         <v>4</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="12">
+        <f>COUNTA(公司信息!A6:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -3289,8 +3348,6 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3307,8 +3364,14 @@
         <f>SUM(B2:B12)</f>
         <v>366</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="13">
+        <f>SUM(C2:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <f>SUM(D2:D12)</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3521,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3533,7 +3596,7 @@
     <col min="2" max="2" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>460</v>
       </c>
@@ -3541,7 +3604,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -3549,7 +3612,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>424</v>
       </c>
@@ -3557,7 +3620,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>425</v>
       </c>
@@ -3565,7 +3628,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>426</v>
       </c>
@@ -3573,7 +3636,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>427</v>
       </c>
@@ -3581,7 +3644,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>428</v>
       </c>
@@ -3589,7 +3652,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>429</v>
       </c>
@@ -3597,7 +3660,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>430</v>
       </c>
@@ -3605,7 +3668,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -3613,7 +3676,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>432</v>
       </c>
@@ -3621,7 +3684,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>433</v>
       </c>
@@ -3629,7 +3692,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>434</v>
       </c>
@@ -3637,7 +3700,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -3645,12 +3708,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>515</v>
       </c>
       <c r="B15" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -3662,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3674,7 +3742,7 @@
     <col min="2" max="2" width="76.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>180</v>
       </c>
@@ -3682,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>601</v>
       </c>
@@ -3690,7 +3758,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -3698,7 +3766,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>597</v>
       </c>
@@ -3706,7 +3774,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>598</v>
       </c>
@@ -3714,7 +3782,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>599</v>
       </c>
@@ -3722,7 +3790,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>600</v>
       </c>
@@ -3730,7 +3798,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>611</v>
       </c>
@@ -3738,7 +3806,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>612</v>
       </c>
@@ -3746,12 +3814,17 @@
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>613</v>
       </c>
       <c r="B10" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -3762,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3774,7 +3847,7 @@
     <col min="2" max="2" width="68.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>180</v>
       </c>
@@ -3782,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>400</v>
       </c>
@@ -3790,7 +3863,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>401</v>
       </c>
@@ -3798,7 +3871,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>402</v>
       </c>
@@ -3806,12 +3879,17 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4297,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>528</v>
       </c>
@@ -4227,7 +4305,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>529</v>
       </c>
@@ -4235,7 +4313,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>548</v>
       </c>
@@ -4243,7 +4321,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>549</v>
       </c>
@@ -4251,7 +4329,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>530</v>
       </c>
@@ -4259,7 +4337,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>531</v>
       </c>
@@ -4267,7 +4345,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>532</v>
       </c>
@@ -4275,7 +4353,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>533</v>
       </c>
@@ -4283,7 +4361,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>534</v>
       </c>
@@ -4291,7 +4369,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
         <v>757</v>
@@ -4306,10 +4389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A28"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4318,7 +4401,7 @@
     <col min="2" max="2" width="94.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>275</v>
       </c>
@@ -4326,7 +4409,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>273</v>
       </c>
@@ -4334,7 +4417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>271</v>
       </c>
@@ -4342,7 +4425,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
@@ -4350,7 +4433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>267</v>
       </c>
@@ -4358,7 +4441,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>265</v>
       </c>
@@ -4366,7 +4449,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>263</v>
       </c>
@@ -4374,7 +4457,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>261</v>
       </c>
@@ -4382,7 +4465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>259</v>
       </c>
@@ -4390,7 +4473,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>257</v>
       </c>
@@ -4398,7 +4481,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>255</v>
       </c>
@@ -4406,7 +4489,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>253</v>
       </c>
@@ -4414,7 +4497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>251</v>
       </c>
@@ -4422,7 +4505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>592</v>
       </c>
@@ -4430,11 +4513,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
@@ -4666,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4678,7 +4764,7 @@
     <col min="2" max="2" width="44.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4686,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4694,7 +4780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4702,7 +4788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -4710,7 +4796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -4718,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -4726,7 +4812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>78</v>
       </c>
@@ -4734,7 +4820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -4742,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -4750,7 +4836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>449</v>
       </c>
@@ -4758,27 +4844,30 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
     </row>
@@ -5058,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5326,7 +5415,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>186</v>
       </c>
@@ -5334,7 +5423,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>184</v>
       </c>
@@ -5342,7 +5431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>182</v>
       </c>
@@ -5350,55 +5439,58 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="3"/>
     </row>
@@ -5502,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5770,7 +5862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -5778,7 +5870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -5786,7 +5878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -5794,7 +5886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
@@ -5802,7 +5894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -5810,7 +5902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -5818,7 +5910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -5826,7 +5918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
@@ -5834,7 +5926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>472</v>
       </c>
@@ -5842,35 +5934,38 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>473</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
@@ -6115,10 +6210,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6255,7 +6350,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>309</v>
       </c>
@@ -6263,7 +6358,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>311</v>
       </c>
@@ -6271,7 +6366,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>312</v>
       </c>
@@ -6279,7 +6374,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>511</v>
       </c>
@@ -6287,12 +6382,17 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>510</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6304,10 +6404,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6956,7 +7056,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>643</v>
       </c>
@@ -6964,7 +7064,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>644</v>
       </c>
@@ -6972,12 +7072,17 @@
         <v>664</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>645</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -6989,9 +7094,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="B71" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
@@ -7639,7 +7744,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>681</v>
       </c>
@@ -7647,7 +7752,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>682</v>
       </c>
@@ -7655,7 +7760,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>683</v>
       </c>
@@ -7663,7 +7768,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>684</v>
       </c>
@@ -7671,7 +7776,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>685</v>
       </c>
@@ -7679,7 +7784,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>686</v>
       </c>
@@ -7687,12 +7792,17 @@
         <v>706</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>687</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>707</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="765">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2624,6 +2624,20 @@
   </si>
   <si>
     <t>2014.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGoodsPage_042_Beyond_AllFare_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_043_AllFare_Zero_Fail_Test.java</t>
+  </si>
+  <si>
+    <t>发布货源，总价超过99万时，不能发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布货源，总价为0时，不能发布成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2773,7 +2787,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2815,7 +2829,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2850,7 +2864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3061,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3190,11 +3204,11 @@
       </c>
       <c r="B6" s="12">
         <f>COUNTA(发布货源!A2:A1000)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12">
         <f>COUNTA(发布货源!A43:A1000)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -3362,11 +3376,11 @@
       </c>
       <c r="B14" s="13">
         <f>SUM(B2:B12)</f>
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C14" s="13">
         <f>SUM(C2:C12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="13">
         <f>SUM(D2:D12)</f>
@@ -3904,7 +3918,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5596,8 +5610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5946,12 +5960,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="787">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,27 +886,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清空数据库中该用户的注册信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_012_JdbcUpdateDeleteUsername_Test.java</t>
-  </si>
-  <si>
-    <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、确认密码，点击提交按钮，检车注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterPage_011_End_Success_Test.java</t>
-  </si>
-  <si>
     <t>未登录的情况下，点击首页注册按钮，填写用户名称、登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterPage_010_Fail_UssernameAndPasswordDifRepassword_Test.java</t>
-  </si>
-  <si>
     <t>未登录的情况下，点击首页注册按钮，填写登录密码、不同的确认密码，点击提交按钮，检车注册页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2074,12 +2057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterPage_013_Fail_RegisteredMembers_Username_Test.java</t>
-  </si>
-  <si>
-    <t>注册失败：只输入用户名不输入密码 点击登陆会提示“密码长度为6-20个字符”</t>
-  </si>
-  <si>
     <t>找货源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2638,6 +2615,108 @@
   </si>
   <si>
     <t>发布货源，总价为0时，不能发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_010_Fail_UsernameAndPasswordDifRepassword_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_011_NotCheckAgreement_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_012_Fail_AllEmptyWithAgreementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_013_Fail_OnlyUsernameWithAgeementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_015_Fail_OnlyRepasswordWithAgreementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_016_Fail_UsernameAndPasswordWithAgreementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_017_Fail_UsernameAndRepasswordWithAgreementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_018_Fail_PasswordAndRepasswordWithAgeement_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_019_Fail_PasswordDifferentRepasswordWithAgeementChecked_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_021_OpenAgreement_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_022_SuccessGoHome_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_024_SuccessGoAttest_Test.java</t>
+  </si>
+  <si>
+    <t>RegisterPage_102_Fail_RegisteredMembers_Username_Test.java</t>
+  </si>
+  <si>
+    <t>用户名和密码和确认密码都输入之后，没有勾选同意条款checkbox，点击注册，弹出“请确认已阅读该协议”的提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名和密码,确认密码都不填写,但是同意条款checkbox勾选，然后点击注册按钮，不能注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注册页面，只输入用户名不输入密码和确认密码，然后勾选认证协议checkbox，最后点击注册，不能注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_014_Fail_OnlyPasswordWithAgreementChecked_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，只输入密码，不输入用户名和确认密码，勾选同意协议checkbox，最后点击注册，注册不成功</t>
+  </si>
+  <si>
+    <t>注册页面，只输入确认密码，用户名和密码都不输入并勾选用户协议checkbox,点击注册按钮，注册不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，只输入用户名和密码，不输入确认密码，但是勾选了注册协议checkbox，点击注册，注册不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，只输入用户名和确认密码，不输入密码，但是勾选了注册协议checkbox，点击注册，注册不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，只输入密码和确认密码，不输入用户名，但是注册协议checkbox勾选，点击注册，不能注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，用户名不输入，输入不同的密码和确认密码，点击注册按钮，注册不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPage_020_Fail_UsernameAndPasswordDifRepasswordWithAgreementChecked_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面，输入用户名，密码和确认密码不一致并且勾选同意注册条款的checkbox，点击注册，注册不应该成功</t>
+  </si>
+  <si>
+    <t>注册页面，点击《智慧物流网站注册协议》链接打开一个新的窗口，等待15秒之后，点击关闭可以关闭成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册以后，点击去首页，可以正常进入首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功注册之后，点击认证个人信息按钮，进入认证页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击已经存在的用户去注册，不输入密码和确认密码，注册失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3075,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3087,16 +3166,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -3108,7 +3187,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B2" s="12">
         <f>COUNTA(首页!A2:A1000)</f>
@@ -3131,15 +3210,15 @@
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B3" s="12">
-        <f>COUNTA(注册!A2:A1000)</f>
-        <v>13</v>
+        <f>COUNTA(注册!A2:A999)</f>
+        <v>24</v>
       </c>
       <c r="C3" s="12">
-        <f>COUNTA(注册!A15:A1000)</f>
-        <v>0</v>
+        <f>COUNTA(注册!A12:A999)</f>
+        <v>14</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -3154,7 +3233,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
@@ -3177,7 +3256,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B5" s="12">
         <f>COUNTA(完善用户信息!A2:A1000)</f>
@@ -3200,7 +3279,7 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B6" s="12">
         <f>COUNTA(发布货源!A2:A1000)</f>
@@ -3223,7 +3302,7 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B7" s="12">
         <f>COUNTA(我的货源!A2:A1000)</f>
@@ -3246,7 +3325,7 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B8" s="12">
         <f>COUNTA(找货源!A2:A1000)-2</f>
@@ -3269,7 +3348,7 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B9" s="12">
         <f>COUNTA(找车源!A2:A1000)</f>
@@ -3292,7 +3371,7 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B10" s="12">
         <f>COUNTA(我的订单!A2:A1000)</f>
@@ -3315,7 +3394,7 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B11" s="12">
         <f>COUNTA(个人中心!A2:A1000)</f>
@@ -3338,7 +3417,7 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B12" s="12">
         <f>COUNTA(公司信息!A2:A1000)</f>
@@ -3372,15 +3451,15 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B14" s="13">
         <f>SUM(B2:B12)</f>
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C14" s="13">
         <f>SUM(C2:C12)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D14" s="13">
         <f>SUM(D2:D12)</f>
@@ -3612,127 +3691,127 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -3766,79 +3845,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" t="s">
         <v>596</v>
-      </c>
-      <c r="B3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" t="s">
         <v>597</v>
-      </c>
-      <c r="B4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" t="s">
         <v>598</v>
-      </c>
-      <c r="B5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B8" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -3871,39 +3950,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -4033,42 +4112,42 @@
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -4076,322 +4155,322 @@
         <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -4403,360 +4482,400 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="1" max="1" width="65.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="94.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>275</v>
+      <c r="A1" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>273</v>
+      <c r="A2" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>271</v>
+      <c r="A3" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>269</v>
+      <c r="A4" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>267</v>
+      <c r="A5" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>265</v>
+      <c r="A6" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>263</v>
+      <c r="A7" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>261</v>
+      <c r="A8" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>259</v>
+      <c r="A9" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>257</v>
+      <c r="A10" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>255</v>
+      <c r="A11" s="3" t="s">
+        <v>758</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>253</v>
+      <c r="A12" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>252</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>251</v>
+      <c r="A13" s="3" t="s">
+        <v>760</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>250</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>592</v>
+      <c r="A14" s="3" t="s">
+        <v>761</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>593</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A15" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4852,17 +4971,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5457,7 +5576,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5610,7 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -5942,37 +6061,37 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C42" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6374,47 +6493,47 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -6456,106 +6575,106 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -6576,535 +6695,535 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -7130,7 +7249,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7138,7 +7257,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B2" s="5"/>
     </row>
@@ -7179,7 +7298,7 @@
         <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -7195,7 +7314,7 @@
         <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -7203,7 +7322,7 @@
         <v>167</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -7219,7 +7338,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -7227,7 +7346,7 @@
         <v>163</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -7243,7 +7362,7 @@
         <v>160</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -7259,572 +7378,572 @@
         <v>157</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B67" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -19,13 +19,14 @@
     <sheet name="我的订单" sheetId="10" r:id="rId10"/>
     <sheet name="个人中心" sheetId="13" r:id="rId11"/>
     <sheet name="公司信息" sheetId="11" r:id="rId12"/>
+    <sheet name="修改密码" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="820">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2717,6 +2718,122 @@
   </si>
   <si>
     <t>点击已经存在的用户去注册，不输入密码和确认密码，注册失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPasswordPage_001_AttestedUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_002_AttestedNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_003_AttestedIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_004_AttestedCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_005_AttestedIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_006_AttestedIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_007_AttestedIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_008_AttestedIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_009_AttestedCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_010_AttestedCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_011_AttestedCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_012_AttestedOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_013_AttestedOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_014_AttestedAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_015_AttestedModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_016_AttestedResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置为默认密码便于下次回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2755,7 +2872,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2777,6 +2894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2819,7 +2942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2848,6 +2971,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3152,15 +3278,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3439,8 +3565,17 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="B13" s="12">
+        <f>COUNTA(修改密码!A2:A1000)</f>
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f>COUNTA(修改密码!A2:A1000)</f>
+        <v>16</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3450,21 +3585,8 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="B14" s="13">
-        <f>SUM(B2:B12)</f>
-        <v>379</v>
-      </c>
-      <c r="C14" s="13">
-        <f>SUM(C2:C12)</f>
-        <v>16</v>
-      </c>
-      <c r="D14" s="13">
-        <f>SUM(D2:D12)</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3474,10 +3596,21 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" s="13">
+        <f>SUM(B1:B13)</f>
+        <v>395</v>
+      </c>
+      <c r="C15" s="13">
+        <f>SUM(C2:C13)</f>
+        <v>32</v>
+      </c>
+      <c r="D15" s="13">
+        <f>SUM(D2:D12)</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3667,6 +3800,19 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3992,6 +4138,507 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="55.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="78.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
@@ -4888,7 +5535,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="882">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2834,6 +2834,225 @@
   </si>
   <si>
     <t>我的资料-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPage_010_Login_Success_Test.java</t>
+  </si>
+  <si>
+    <t>在登陆页面上点击注册按钮，成功进入注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPasswordPage_101_UnattestedUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_102_UnattestedNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_103_UnattestedIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_104_UnattestedCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_105_UnattestedIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_106_UnattestedIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_107_UnattestedIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_108_UnattestedIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_109_UnattestedCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_110_UnattestedCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_111_UnattestedCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_112_UnattestedOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_113_UnattestedOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_114_UnattestedAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_115_UnattestedModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_116_UnattestedResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_201_AttestingUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_202_AttestingNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_203_AttestingIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_204_AttestingCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_205_AttestingIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_206_AttestingIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_207_AttestingIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_208_AttestingIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_209_AttestingCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_210_AttestingCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_211_AttestingCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_212_AttestingOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_213_AttestingOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_214_AttestingAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_215_AttestingModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_216_AttestingResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 未经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原用户的默认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3281,7 +3500,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3363,11 +3582,11 @@
       </c>
       <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12">
         <f>COUNTA(登录!A11:A1000)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -3570,12 +3789,13 @@
       </c>
       <c r="B13" s="12">
         <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
-      </c>
-      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
         <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3587,6 +3807,8 @@
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3601,11 +3823,11 @@
       </c>
       <c r="B15" s="13">
         <f>SUM(B1:B13)</f>
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="C15" s="13">
         <f>SUM(C2:C13)</f>
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D15" s="13">
         <f>SUM(D2:D12)</f>
@@ -4142,8 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4168,7 +4390,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>790</v>
       </c>
@@ -4289,132 +4511,260 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
@@ -5534,8 +5884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5625,8 +5975,12 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>821</v>
+      </c>
       <c r="C11" t="s">
         <v>753</v>
       </c>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,22 +11,23 @@
     <sheet name="首页" sheetId="1" r:id="rId2"/>
     <sheet name="注册" sheetId="9" r:id="rId3"/>
     <sheet name="登录" sheetId="2" r:id="rId4"/>
-    <sheet name="完善用户信息" sheetId="8" r:id="rId5"/>
-    <sheet name="发布货源" sheetId="4" r:id="rId6"/>
-    <sheet name="我的货源" sheetId="5" r:id="rId7"/>
-    <sheet name="找车源" sheetId="6" r:id="rId8"/>
-    <sheet name="找货源" sheetId="7" r:id="rId9"/>
-    <sheet name="我的订单" sheetId="10" r:id="rId10"/>
-    <sheet name="个人中心" sheetId="13" r:id="rId11"/>
-    <sheet name="公司信息" sheetId="11" r:id="rId12"/>
-    <sheet name="修改密码" sheetId="14" r:id="rId13"/>
+    <sheet name="基本信息" sheetId="15" r:id="rId5"/>
+    <sheet name="认证信息" sheetId="8" r:id="rId6"/>
+    <sheet name="发布货源" sheetId="4" r:id="rId7"/>
+    <sheet name="我的货源" sheetId="5" r:id="rId8"/>
+    <sheet name="找车源" sheetId="6" r:id="rId9"/>
+    <sheet name="找货源" sheetId="7" r:id="rId10"/>
+    <sheet name="我的订单" sheetId="10" r:id="rId11"/>
+    <sheet name="个人中心" sheetId="13" r:id="rId12"/>
+    <sheet name="公司信息" sheetId="11" r:id="rId13"/>
+    <sheet name="修改密码" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="949">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,225 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddUserInfoPage_034_JdbcUpdateDeleteAddUseInfo_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_033_Success_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_032_Fail_TelIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_031_Fail_NameIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_030_Fail_NameTelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_029_Fail_NameTelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_028_Fail_NameTelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_027_Fail_IdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_026_Fail_TelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_025_Fail_TelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_024_Fail_TelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_023_Fail_NameCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_022_Fail_NameIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_021_Fail_NameIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_020_Fail_NameTelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_019_Fail_NameTelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_018_Fail_NameTelIdcar_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_017_Fail_CompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_016_Fail_IdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_015_Fail_IdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_014_Fail_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_013_Fail_TelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_012_Fail_TelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_011_Fail_NameAddress_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_010_Fail_NameCompany_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_009_Fail_NameIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_008_Fail_NameTel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_007_Fail_Address_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_006_Fail_Company_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_005_Fail_Idcard_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>AddUserInfoPage_004_Fail_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_003_Fail_Name_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_002_Fail_All_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUserInfoPage_001_UI_Test.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自动化测试类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2030,10 +1812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完善用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布货源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2835,6 +2613,631 @@
   <si>
     <t>我的资料-修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_001_Unattested_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_002_Unattested_Fail_Blank_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_003_Unattested_Fail_Name_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_004_Unattested_Fail_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_005_Unattested_Fail_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_006_Unattested_Fail_Company_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_007_Unattested_Fail_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_008_Unattested_Fail_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_009_Unattested_Fail_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_010_Unattested_Fail_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_011_Unattested_Fail_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_012_Unattested_Fail_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_013_Unattested_Fail_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_014_Unattested_Fail_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_015_Unattested_Fail_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_016_Unattested_Fail_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_017_Unattested_Fail_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_018_Unattested_Fail_NameTelIdcar_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_019_Unattested_Fail_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_020_Unattested_Fail_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_021_Unattested_Fail_NameIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_022_Unattested_Fail_NameIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_023_Unattested_Fail_NameCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_024_Unattested_Fail_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_025_Unattested_Fail_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_026_Unattested_Fail_TelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_027_Unattested_Fail_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_028_Unattested_Fail_NameTelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_029_Unattested_Fail_NameTelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_030_Unattested_Fail_NameTelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_031_Unattested_Fail_NameIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_032_Unattested_Fail_TelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_033_Unattested_Fail_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_034_Unattested_Fail_NamePhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_035_Unattested_Fail_TelIdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_036_Unattested_Fail_NameIdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_037_Unattested_Success_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_038_Unattested_JdbcUpdateDeleteAddUseInfo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_101_Attesting_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_201_Attested_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_202_Attested_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_203_Attested_PassWord_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_204_Attested_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_205_Attested_TelPassWord_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_206_Attested_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_207_Attested_PassWordAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_208_Success_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、地址、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证信息界面，认证审核用户，认证页面上的UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，检查UI界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系方式，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登录密码修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、登陆密码，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登陆密码、地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写全部编写必填信息，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-认证信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_001_Unattested_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_002_Unattested_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_003_Unattested_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_004_Unattested_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_005_Unattested_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_006_Unattested_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_007_Unattested_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_008_Unattested_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_009_Unattested_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_010_Unattested_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_011_Unattested_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_012_Unattested_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_013_Unattested_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_014_Unattested_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_015_Unattested_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_016_Unattested_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_017_Unattested_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_101_Attesting_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_102_Attesting_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_103_Attesting_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_104_Attesting_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_105_Attesting_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_106_Attesting_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_107_Attesting_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_108_Attesting_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_109_Attesting_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_110_Attesting_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_111_Attesting_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_112_Attesting_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_113_Attesting_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_114_Attesting_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_115_Attesting_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_116_Attesting_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_117_Attesting_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_201_Attested_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_202_Attested_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_203_Attested_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_204_Attested_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_205_Attested_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_206_Attested_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_207_Attested_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_208_Attested_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_209_Attested_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_210_Attested_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_211_Attested_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_212_Attested_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_213_Attested_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_214_Attested_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_215_Attested_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_216_Attested_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_217_Attested_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
   </si>
 </sst>
 </file>
@@ -2992,7 +3395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3034,7 +3437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3069,7 +3472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3278,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3292,16 +3695,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>751</v>
+        <v>683</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>752</v>
+        <v>684</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -3313,7 +3716,7 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="B2" s="12">
         <f>COUNTA(首页!A2:A1000)</f>
@@ -3336,7 +3739,7 @@
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="B3" s="12">
         <f>COUNTA(注册!A2:A999)</f>
@@ -3359,7 +3762,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
@@ -3382,19 +3785,17 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>580</v>
+        <v>845</v>
       </c>
       <c r="B5" s="12">
-        <f>COUNTA(完善用户信息!A2:A1000)</f>
-        <v>34</v>
+        <f>COUNTA(基本信息!A2:A1000)</f>
+        <v>51</v>
       </c>
       <c r="C5" s="12">
-        <f>COUNTA(完善用户信息!A36:A1000)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
+        <f>COUNTA(基本信息!A2:A1000)</f>
+        <v>51</v>
+      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -3405,15 +3806,15 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>581</v>
+        <v>844</v>
       </c>
       <c r="B6" s="12">
-        <f>COUNTA(发布货源!A2:A1000)</f>
-        <v>43</v>
+        <f>COUNTA(认证信息!A2:A1000)</f>
+        <v>47</v>
       </c>
       <c r="C6" s="12">
-        <f>COUNTA(发布货源!A43:A1000)</f>
-        <v>2</v>
+        <f>COUNTA(认证信息!A2:A1000)</f>
+        <v>47</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -3428,15 +3829,15 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="B7" s="12">
-        <f>COUNTA(我的货源!A2:A1000)</f>
-        <v>20</v>
+        <f>COUNTA(发布货源!A2:A1000)</f>
+        <v>43</v>
       </c>
       <c r="C7" s="12">
-        <f>COUNTA(我的货源!A22:A1000)</f>
-        <v>0</v>
+        <f>COUNTA(发布货源!A43:A1000)</f>
+        <v>2</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -3451,14 +3852,14 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="B8" s="12">
-        <f>COUNTA(找货源!A2:A1000)-2</f>
-        <v>84</v>
+        <f>COUNTA(我的货源!A2:A1000)</f>
+        <v>20</v>
       </c>
       <c r="C8" s="12">
-        <f>COUNTA(找货源!A86:A1000)-2</f>
+        <f>COUNTA(我的货源!A22:A1000)</f>
         <v>0</v>
       </c>
       <c r="D8" s="12">
@@ -3474,14 +3875,14 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="B9" s="12">
-        <f>COUNTA(找车源!A2:A1000)</f>
-        <v>82</v>
+        <f>COUNTA(找货源!A2:A1000)-2</f>
+        <v>84</v>
       </c>
       <c r="C9" s="12">
-        <f>COUNTA(找车源!A84:A1000)</f>
+        <f>COUNTA(找货源!A86:A1000)-2</f>
         <v>0</v>
       </c>
       <c r="D9" s="12">
@@ -3497,14 +3898,14 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="B10" s="12">
-        <f>COUNTA(我的订单!A2:A1000)</f>
-        <v>14</v>
+        <f>COUNTA(找车源!A2:A1000)</f>
+        <v>82</v>
       </c>
       <c r="C10" s="12">
-        <f>COUNTA(我的订单!A16:A1000)</f>
+        <f>COUNTA(找车源!A84:A1000)</f>
         <v>0</v>
       </c>
       <c r="D10" s="12">
@@ -3520,14 +3921,14 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
       <c r="B11" s="12">
-        <f>COUNTA(个人中心!A2:A1000)</f>
-        <v>9</v>
+        <f>COUNTA(我的订单!A2:A1000)</f>
+        <v>14</v>
       </c>
       <c r="C11" s="12">
-        <f>COUNTA(个人中心!A11:A1000)</f>
+        <f>COUNTA(我的订单!A16:A1000)</f>
         <v>0</v>
       </c>
       <c r="D11" s="12">
@@ -3543,14 +3944,14 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>585</v>
+        <v>520</v>
       </c>
       <c r="B12" s="12">
-        <f>COUNTA(公司信息!A2:A1000)</f>
-        <v>4</v>
+        <f>COUNTA(个人中心!A2:A1000)</f>
+        <v>9</v>
       </c>
       <c r="C12" s="12">
-        <f>COUNTA(公司信息!A6:A1000)</f>
+        <f>COUNTA(个人中心!A11:A1000)</f>
         <v>0</v>
       </c>
       <c r="D12" s="12">
@@ -3566,15 +3967,18 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>819</v>
+        <v>517</v>
       </c>
       <c r="B13" s="12">
-        <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
+        <f>COUNTA(公司信息!A2:A1000)</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="12">
+        <f>COUNTA(公司信息!A6:A1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3585,8 +3989,17 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B14" s="12">
+        <f>COUNTA(修改密码!A2:A1000)</f>
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>COUNTA(修改密码!A2:A1000)</f>
+        <v>16</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -3596,21 +4009,8 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="B15" s="13">
-        <f>SUM(B1:B13)</f>
-        <v>395</v>
-      </c>
-      <c r="C15" s="13">
-        <f>SUM(C2:C13)</f>
-        <v>32</v>
-      </c>
-      <c r="D15" s="13">
-        <f>SUM(D2:D12)</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3620,10 +4020,21 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="13">
+        <f>SUM(B1:B14)</f>
+        <v>459</v>
+      </c>
+      <c r="C16" s="13">
+        <f>SUM(C2:C14)</f>
+        <v>130</v>
+      </c>
+      <c r="D16" s="13">
+        <f>SUM(D2:D13)</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3814,6 +4225,19 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3822,6 +4246,726 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="74.5" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B67" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>685</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -3837,127 +4981,127 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -3967,7 +5111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3991,79 +5135,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>600</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +5216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4096,39 +5240,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -4138,11 +5282,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4154,138 +5298,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>787</v>
+        <v>719</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>788</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>791</v>
+        <v>723</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>792</v>
+        <v>724</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>793</v>
+        <v>725</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>794</v>
+        <v>726</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>810</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>811</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>812</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>813</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>814</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>799</v>
+        <v>731</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>815</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>800</v>
+        <v>732</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>801</v>
+        <v>733</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>802</v>
+        <v>734</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>803</v>
+        <v>735</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>804</v>
+        <v>736</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>818</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -4759,42 +5903,42 @@
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>272</v>
+        <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -4802,322 +5946,322 @@
         <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>284</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>750</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -5131,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -5143,205 +6287,205 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>267</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>759</v>
+        <v>691</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>772</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>761</v>
+        <v>693</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>773</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>774</v>
+        <v>706</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>775</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>776</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>763</v>
+        <v>695</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>777</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>765</v>
+        <v>697</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>779</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>780</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>782</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>783</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>768</v>
+        <v>700</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>784</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>786</v>
+        <v>718</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -5618,17 +6762,17 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5929,366 +7073,434 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="65.25" customWidth="1"/>
-    <col min="2" max="2" width="66.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="79" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>846</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>898</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>847</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>244</v>
+        <v>848</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>849</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>240</v>
+        <v>850</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>238</v>
+        <v>851</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>236</v>
+        <v>852</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>234</v>
+        <v>853</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>232</v>
+        <v>854</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>230</v>
+        <v>855</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>228</v>
+        <v>856</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>226</v>
+        <v>857</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>224</v>
+        <v>858</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>222</v>
+        <v>859</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>860</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>219</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>218</v>
+        <v>861</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>217</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>216</v>
+        <v>862</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>214</v>
+        <v>863</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>864</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>210</v>
+        <v>865</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>208</v>
+        <v>866</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>206</v>
+        <v>867</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>204</v>
+        <v>868</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>202</v>
+        <v>869</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>200</v>
+        <v>870</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>198</v>
+        <v>871</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>196</v>
+        <v>872</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>194</v>
+        <v>873</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>192</v>
+        <v>874</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>190</v>
+        <v>875</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>188</v>
+        <v>876</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>186</v>
+        <v>877</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>184</v>
+        <v>878</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>182</v>
+        <v>879</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="3"/>
+        <v>931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
@@ -6373,6 +7585,505 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="2" max="2" width="79" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
@@ -6708,37 +8419,37 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>754</v>
+        <v>686</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>755</v>
+        <v>687</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>757</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6996,7 +8707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -7140,47 +8851,47 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -7190,7 +8901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C84"/>
   <sheetViews>
@@ -7222,106 +8933,106 @@
     </row>
     <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>360</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -7342,535 +9053,535 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>391</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>390</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>407</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>408</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>409</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>411</v>
+        <v>344</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>615</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>618</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>639</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>640</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>641</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>642</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>623</v>
+        <v>555</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>643</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>625</v>
+        <v>557</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>626</v>
+        <v>558</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>627</v>
+        <v>559</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>629</v>
+        <v>561</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>630</v>
+        <v>562</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>650</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>631</v>
+        <v>563</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>632</v>
+        <v>564</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>652</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>636</v>
+        <v>568</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>637</v>
+        <v>569</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>638</v>
+        <v>570</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>658</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -7878,724 +9589,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
-  <sheetViews>
-    <sheetView topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="74.5" customWidth="1"/>
-    <col min="2" max="2" width="81.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B67" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C88" t="s">
-        <v>753</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1064">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3238,6 +3238,391 @@
   </si>
   <si>
     <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_301_AttestReject_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_302_AttestedReject_Success_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_303_AttestedReject_Blank_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_304_AttestedReject_Name_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_305_AttestedReject_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_306_AttestedReject_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_307_AttestedReject_Company_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_308_AttestedReject_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_309_AttestedReject_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_310_AttestedReject_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_311_AttestedReject_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_312_AttestedReject_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_313_AttestedReject_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_314_AttestedReject_NamePhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_315_AttestedReject_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_316_AttestedReject_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_317_AttestedReject_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_318_AattestedReject_TelPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_319_AttestedReject_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_320_AttestedReject_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_321_AttestedReject_IdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_322_AttestedReject_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_323_AttestedReject_CompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_324_AttestedReject_AddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_325_AttestedReject_NameTelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_326_AttestedReject_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_327_AttestedReject_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_328_AttestedReject_NameTelPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_329_AttestedReject_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_330_AttestedReject_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_331_AttestedReject_TelIdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_332_ttestedReject_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_333_AttestedReject_IdcardCompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_334_AttestedReject_IdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_335_AttestedReject_CompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_336_AttestedReject_NameTelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_337_AttestedReject_NameTelIdcardCompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_338_AttestedReject_NameTelIdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_339_AttestedReject_NameTelCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_340_AttestedReject_NameIdcardCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_341_AttestedReject_TelIdcardCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面的UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部修改自己填写的全部信息，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部信息不修改直接提交，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改姓名，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改联系电话，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系电话，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司地址、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系方式、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_301_AttestReject_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_302_AttestReject_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_303_AttestReject_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_304_AttestReject_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_305_AttestReject_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_306_AttestReject_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_307_AttestReject_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_308_AttestReject_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_309_AttestReject_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_310_AttestReject_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_311_AttestReject_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_312_AttestReject_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_313_AttestReject_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_314_AttestReject_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_315_AttestReject_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_316_AttestReject_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_317_AttestReject_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
   </si>
 </sst>
 </file>
@@ -3683,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3789,11 +4174,11 @@
       </c>
       <c r="B5" s="12">
         <f>COUNTA(基本信息!A2:A1000)</f>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12">
         <f>COUNTA(基本信息!A2:A1000)</f>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3810,11 +4195,11 @@
       </c>
       <c r="B6" s="12">
         <f>COUNTA(认证信息!A2:A1000)</f>
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C6" s="12">
         <f>COUNTA(认证信息!A2:A1000)</f>
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -4025,11 +4410,11 @@
       </c>
       <c r="B16" s="13">
         <f>SUM(B1:B14)</f>
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="C16" s="13">
         <f>SUM(C2:C14)</f>
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="D16" s="13">
         <f>SUM(D2:D13)</f>
@@ -7073,8 +7458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7238,7 +7623,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>864</v>
       </c>
@@ -7286,7 +7671,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>870</v>
       </c>
@@ -7294,7 +7679,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>871</v>
       </c>
@@ -7302,7 +7687,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>872</v>
       </c>
@@ -7318,7 +7703,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>874</v>
       </c>
@@ -7374,7 +7759,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>881</v>
       </c>
@@ -7422,7 +7807,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>887</v>
       </c>
@@ -7430,7 +7815,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>888</v>
       </c>
@@ -7438,7 +7823,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>889</v>
       </c>
@@ -7454,7 +7839,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>891</v>
       </c>
@@ -7503,72 +7888,140 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
@@ -7586,15 +8039,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="65.25" customWidth="1"/>
+    <col min="1" max="1" width="74.125" customWidth="1"/>
     <col min="2" max="2" width="79" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7986,96 +8439,332 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A68" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A71" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>972</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>973</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>974</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>975</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>976</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>977</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>978</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>979</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>980</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>981</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>982</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>983</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>984</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>985</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>986</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>987</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>988</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>989</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1029</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1156">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2555,1074 +2555,1358 @@
     <t>UserPasswordPage_016_AttestedResetPassword_Test.java</t>
   </si>
   <si>
+    <t>已经认证用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置为默认密码便于下次回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_001_Unattested_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_002_Unattested_Fail_Blank_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_003_Unattested_Fail_Name_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_004_Unattested_Fail_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_005_Unattested_Fail_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_006_Unattested_Fail_Company_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_007_Unattested_Fail_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_008_Unattested_Fail_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_009_Unattested_Fail_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_010_Unattested_Fail_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_011_Unattested_Fail_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_012_Unattested_Fail_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_013_Unattested_Fail_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_014_Unattested_Fail_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_015_Unattested_Fail_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_016_Unattested_Fail_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_017_Unattested_Fail_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_018_Unattested_Fail_NameTelIdcar_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_019_Unattested_Fail_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_020_Unattested_Fail_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_021_Unattested_Fail_NameIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_022_Unattested_Fail_NameIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_023_Unattested_Fail_NameCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_024_Unattested_Fail_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_025_Unattested_Fail_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_026_Unattested_Fail_TelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_027_Unattested_Fail_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_028_Unattested_Fail_NameTelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_029_Unattested_Fail_NameTelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_030_Unattested_Fail_NameTelCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_031_Unattested_Fail_NameIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_032_Unattested_Fail_TelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_033_Unattested_Fail_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_034_Unattested_Fail_NamePhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_035_Unattested_Fail_TelIdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_036_Unattested_Fail_NameIdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_037_Unattested_Success_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_038_Unattested_JdbcUpdateDeleteAddUseInfo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_101_Attesting_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_201_Attested_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_202_Attested_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_203_Attested_PassWord_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_204_Attested_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_205_Attested_TelPassWord_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_206_Attested_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_207_Attested_PassWordAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestingInfoPage_208_Success_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、地址、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证信息界面，认证审核用户，认证页面上的UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，检查UI界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系方式，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登录密码修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、登陆密码，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登陆密码、地址，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写全部编写必填信息，修改认证信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-认证信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资料-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_001_Unattested_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_002_Unattested_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_003_Unattested_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_004_Unattested_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_005_Unattested_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_006_Unattested_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_007_Unattested_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_008_Unattested_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_009_Unattested_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_010_Unattested_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_011_Unattested_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_012_Unattested_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_013_Unattested_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_014_Unattested_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_015_Unattested_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_016_Unattested_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_017_Unattested_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_101_Attesting_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_102_Attesting_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_103_Attesting_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_104_Attesting_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_105_Attesting_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_106_Attesting_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_107_Attesting_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_108_Attesting_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_109_Attesting_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_110_Attesting_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_111_Attesting_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_112_Attesting_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_113_Attesting_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_114_Attesting_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_115_Attesting_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_116_Attesting_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_117_Attesting_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_201_Attested_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_202_Attested_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_203_Attested_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_204_Attested_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_205_Attested_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_206_Attested_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_207_Attested_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_208_Attested_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_209_Attested_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_210_Attested_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_211_Attested_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_212_Attested_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_213_Attested_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_214_Attested_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_215_Attested_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_216_Attested_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_217_Attested_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>新注册，未认证的用户已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_301_AttestReject_UI_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_302_AttestedReject_Success_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_303_AttestedReject_Blank_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_304_AttestedReject_Name_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_305_AttestedReject_Tel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_306_AttestedReject_Idcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_307_AttestedReject_Company_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_308_AttestedReject_Address_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_309_AttestedReject_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_310_AttestedReject_NameTel_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_311_AttestedReject_NameIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_312_AttestedReject_NameCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_313_AttestedReject_NameAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_314_AttestedReject_NamePhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_315_AttestedReject_TelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_316_AttestedReject_TelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_317_AttestedReject_TelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_318_AattestedReject_TelPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_319_AttestedReject_IdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_320_AttestedReject_IdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_321_AttestedReject_IdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_322_AttestedReject_CompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_323_AttestedReject_CompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_324_AttestedReject_AddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_325_AttestedReject_NameTelIdcard_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_326_AttestedReject_NameTelCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_327_AttestedReject_NameTelAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_328_AttestedReject_NameTelPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_329_AttestedReject_TelIdcardCompany_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_330_AttestedReject_TelIdcardAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_331_AttestedReject_TelIdcardPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_332_ttestedReject_IdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_333_AttestedReject_IdcardCompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_334_AttestedReject_IdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_335_AttestedReject_CompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_336_AttestedReject_NameTelIdcardCompanyAddress_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_337_AttestedReject_NameTelIdcardCompanyPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_338_AttestedReject_NameTelIdcardAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_339_AttestedReject_NameTelCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_340_AttestedReject_NameIdcardCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>UserAttestedInfoPage_341_AttestedReject_TelIdcardCompanyAddressPhoto_Test.java</t>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面的UI检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部修改自己填写的全部信息，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部信息不修改直接提交，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改姓名，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改联系电话，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系电话，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司地址、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、身份证号，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、公司地址，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、公司名称，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系方式、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_301_AttestReject_UICheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_302_AttestReject_All_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_303_AttestReject_AllBlank_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_304_AttestReject_Photo_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_305_AttestReject_Birthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_306_AttestReject_QQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_307_AttestReject_Email_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_308_AttestReject_PhotoBirthday_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_309_AttestReject_PhotoQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_310_AttestReject_PhotoEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_311_AttestReject_BirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_312_AttestReject_BirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_313_AttestReject_QQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_314_AttestReject_PhotoBirthdayQQ_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_315_AttestReject_PhotoBirthdayEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_316_AttestReject_PhotoQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>UserBaseInfoPage_317_AttestReject_BirthdayQQEmail_Test.java</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+  </si>
+  <si>
+    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginPage_010_EnterRegisterPage_Test.java</t>
+  </si>
+  <si>
+    <t>在登陆页面上点击注册按钮，成功进入注册页面</t>
+  </si>
+  <si>
+    <t>2015.01.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendGoodsPage_045_AttestedSendPrivateDeclareValue_Test.java</t>
+  </si>
+  <si>
+    <t>SendGoodsPage_044_AttestedSendPublicDeclareValue_Test.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货代A发布一条声明价值公开的货源，货代B登陆之后去找货源处检查此货源声明价值可以看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 货代A发布一条声明价值私有的货源，货代B登陆之后去找货源处检查此货源声明价值不可以看到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPasswordPage_101_UnattestedUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_102_UnattestedNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_103_UnattestedIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_104_UnattestedCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_105_UnattestedIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_106_UnattestedIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_107_UnattestedIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_108_UnattestedIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_109_UnattestedCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_110_UnattestedCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_111_UnattestedCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_112_UnattestedOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_113_UnattestedOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_114_UnattestedAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_115_UnattestedModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_116_UnattestedResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_201_AttestingUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_202_AttestingNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_203_AttestingIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_204_AttestingCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_205_AttestingIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_206_AttestingIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_207_AttestingIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_208_AttestingIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_209_AttestingCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_210_AttestingCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_211_AttestingCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_212_AttestingOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_213_AttestingOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_214_AttestingAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_215_AttestingModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_216_AttestingResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_301_AttestRejectUI_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_302_AttestRejectNameCheck_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_303_AttestRejectIncorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_304_AttestRejectCorrectOldPasswdOthersEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_305_AttestRejectIncorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_306_AttestRejectIncorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_307_AttestRejectIncorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_308_AttestRejectIncorrectOldPasswdOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_309_AttestRejectCorrectOldPasswdNewEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_310_AttestRejectCorrectOldPasswdConfirmEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_311_AttestRejectCorrectOldPasswdOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_312_AttestRejectOldPasswdEmptyOthersNotEmptyDiff_Test.java</t>
+  </si>
+  <si>
     <t>已经认证用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经认证用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置为默认密码便于下次回归测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的资料-修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_001_Unattested_UI_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_002_Unattested_Fail_Blank_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_003_Unattested_Fail_Name_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_004_Unattested_Fail_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_005_Unattested_Fail_Idcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_006_Unattested_Fail_Company_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_007_Unattested_Fail_Address_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_008_Unattested_Fail_NameTel_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_009_Unattested_Fail_NameIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_010_Unattested_Fail_NameCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_011_Unattested_Fail_NameAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_012_Unattested_Fail_TelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_013_Unattested_Fail_TelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_014_Unattested_Fail_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_015_Unattested_Fail_IdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_016_Unattested_Fail_IdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_017_Unattested_Fail_CompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_018_Unattested_Fail_NameTelIdcar_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_019_Unattested_Fail_NameTelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_020_Unattested_Fail_NameTelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_021_Unattested_Fail_NameIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_022_Unattested_Fail_NameIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_023_Unattested_Fail_NameCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_024_Unattested_Fail_TelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_025_Unattested_Fail_TelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_026_Unattested_Fail_TelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_027_Unattested_Fail_IdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_028_Unattested_Fail_NameTelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_029_Unattested_Fail_NameTelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_030_Unattested_Fail_NameTelCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_031_Unattested_Fail_NameIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_032_Unattested_Fail_TelIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_033_Unattested_Fail_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_034_Unattested_Fail_NamePhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_035_Unattested_Fail_TelIdcardPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_036_Unattested_Fail_NameIdcardAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_037_Unattested_Success_All_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_038_Unattested_JdbcUpdateDeleteAddUseInfo_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_101_Attesting_UI_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_201_Attested_UI_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_202_Attested_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_203_Attested_PassWord_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_204_Attested_Address_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_205_Attested_TelPassWord_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_206_Attested_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_207_Attested_PassWordAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestingInfoPage_208_Success_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，全部为空，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份号码，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和联系电话，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和身份证号，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和身份证号码，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写公司名称和公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司地址、，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司名称、公司名称，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、联系电话、身份证号、公司名称、公司地址，点击提交按钮，检查完成用户信息界面</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写上传证件照片，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、公司地址，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写联系电话、身份证号、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录，点击首页按钮发布货源的情况下，填写姓名、身份证号、地址、上传证件照片，点击提交按钮，检查完成用户信息界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证信息界面，认证审核用户，认证页面上的UI检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，检查UI界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系方式，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登录密码修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写地址，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、登陆密码，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写联系电话、地址，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写登陆密码、地址，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，点击认证审核,弹出认证信息界面，填写全部编写必填信息，修改认证信息失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的资料-认证信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的资料-基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_001_Unattested_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_002_Unattested_All_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_003_Unattested_AllBlank_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_004_Unattested_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_005_Unattested_Birthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_006_Unattested_QQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_007_Unattested_Email_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_008_Unattested_PhotoBirthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_009_Unattested_PhotoQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_010_Unattested_PhotoEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_011_Unattested_BirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_012_Unattested_BirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_013_Unattested_QQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_014_Unattested_PhotoBirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_015_Unattested_PhotoBirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_016_Unattested_PhotoQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_017_Unattested_BirthdayQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_101_Attesting_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_102_Attesting_All_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_103_Attesting_AllBlank_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_104_Attesting_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_105_Attesting_Birthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_106_Attesting_QQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_107_Attesting_Email_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_108_Attesting_PhotoBirthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_109_Attesting_PhotoQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_110_Attesting_PhotoEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_111_Attesting_BirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_112_Attesting_BirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_113_Attesting_QQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_114_Attesting_PhotoBirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_115_Attesting_PhotoBirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_116_Attesting_PhotoQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_117_Attesting_BirthdayQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_201_Attested_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_202_Attested_All_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_203_Attested_AllBlank_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_204_Attested_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_205_Attested_Birthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_206_Attested_QQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_207_Attested_Email_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_208_Attested_PhotoBirthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_209_Attested_PhotoQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_210_Attested_PhotoEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_211_Attested_BirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_212_Attested_BirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_213_Attested_QQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_214_Attested_PhotoBirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_215_Attested_PhotoBirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_216_Attested_PhotoQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_217_Attested_BirthdayQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>新注册，未认证的用户已登录的情况下，点击首页按钮发布货源,弹出完善用户界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证审核中的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>已认证的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_301_AttestReject_UI_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_302_AttestedReject_Success_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_303_AttestedReject_Blank_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_304_AttestedReject_Name_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_305_AttestedReject_Tel_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_306_AttestedReject_Idcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_307_AttestedReject_Company_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_308_AttestedReject_Address_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_309_AttestedReject_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_310_AttestedReject_NameTel_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_311_AttestedReject_NameIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_312_AttestedReject_NameCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_313_AttestedReject_NameAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_314_AttestedReject_NamePhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_315_AttestedReject_TelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_316_AttestedReject_TelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_317_AttestedReject_TelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_318_AattestedReject_TelPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_319_AttestedReject_IdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_320_AttestedReject_IdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_321_AttestedReject_IdcardPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_322_AttestedReject_CompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_323_AttestedReject_CompanyPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_324_AttestedReject_AddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_325_AttestedReject_NameTelIdcard_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_326_AttestedReject_NameTelCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_327_AttestedReject_NameTelAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_328_AttestedReject_NameTelPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_329_AttestedReject_TelIdcardCompany_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_330_AttestedReject_TelIdcardAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_331_AttestedReject_TelIdcardPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_332_ttestedReject_IdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_333_AttestedReject_IdcardCompanyPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_334_AttestedReject_IdcardAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_335_AttestedReject_CompanyAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_336_AttestedReject_NameTelIdcardCompanyAddress_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_337_AttestedReject_NameTelIdcardCompanyPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_338_AttestedReject_NameTelIdcardAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_339_AttestedReject_NameTelCompanyAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_340_AttestedReject_NameIdcardCompanyAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>UserAttestedInfoPage_341_AttestedReject_TelIdcardCompanyAddressPhoto_Test.java</t>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面的UI检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部修改自己填写的全部信息，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，全部信息不修改直接提交，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改姓名，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改联系电话，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改身份证号，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，只修改公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系电话，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司地址、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、身份证号，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系电话、身份证号、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、公司地址，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改身份证号、公司地址、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、公司名称，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、身份证号、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、联系方式、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改姓名、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证审核不通过的用户在已登录的情况下，修改认证界面，修改联系方式、身份证号、公司名称、公司名称、证件照片，点击提交并检查提交后的界面检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_301_AttestReject_UICheck_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_302_AttestReject_All_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_303_AttestReject_AllBlank_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_304_AttestReject_Photo_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_305_AttestReject_Birthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_306_AttestReject_QQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_307_AttestReject_Email_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_308_AttestReject_PhotoBirthday_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_309_AttestReject_PhotoQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_310_AttestReject_PhotoEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_311_AttestReject_BirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_312_AttestReject_BirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_313_AttestReject_QQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_314_AttestReject_PhotoBirthdayQQ_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_315_AttestReject_PhotoBirthdayEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_316_AttestReject_PhotoQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>UserBaseInfoPage_317_AttestReject_BirthdayQQEmail_Test.java</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，进行UI检查</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写全部的个人信息，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写为空，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日、QQ，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写生日 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，上传头像、填写QQ 、Email，然后检查修改结果</t>
-  </si>
-  <si>
-    <t>认证驳回的用户已登录的情况下，进入基本信息界面，填写生日、QQ 、Email，然后检查修改结果</t>
+    <t>未认证用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>未认证用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证审核中用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_313_AttestRejectOldPasswdEmptyOthersNotEmptySame_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_314_AttestRejectAllEmpty_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_315_AttestRejectModifyPasswordSuccess_Test.java</t>
+  </si>
+  <si>
+    <t>UserPasswordPage_316_AttestRejectResetPassword_Test.java</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，检查修改密码页面UI</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，检查用户名是不是登录的用户名</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入正确的当前密码，新密码和确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入错误的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入错误的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入错误的当前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入正确的当前密码，新密码为空,确认密码不为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入正确的当前密码，新密码不为空,确认密码为空，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，输入正确的前密码，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空，但是不相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>认证驳回用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
   </si>
 </sst>
 </file>
@@ -4151,11 +4435,11 @@
       </c>
       <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12">
         <f>COUNTA(登录!A11:A1000)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -4170,7 +4454,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B5" s="12">
         <f>COUNTA(基本信息!A2:A1000)</f>
@@ -4191,7 +4475,7 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B6" s="12">
         <f>COUNTA(认证信息!A2:A1000)</f>
@@ -4218,11 +4502,11 @@
       </c>
       <c r="B7" s="12">
         <f>COUNTA(发布货源!A2:A1000)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="12">
         <f>COUNTA(发布货源!A43:A1000)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -4273,7 +4557,6 @@
       <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -4375,16 +4658,17 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B14" s="12">
         <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
-      </c>
-      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12">
         <f>COUNTA(修改密码!A2:A1000)</f>
-        <v>16</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -4396,6 +4680,8 @@
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -4410,11 +4696,11 @@
       </c>
       <c r="B16" s="13">
         <f>SUM(B1:B14)</f>
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="C16" s="13">
         <f>SUM(C2:C14)</f>
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="D16" s="13">
         <f>SUM(D2:D13)</f>
@@ -5671,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5694,7 +5980,7 @@
         <v>721</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>737</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5702,7 +5988,7 @@
         <v>722</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5710,7 +5996,7 @@
         <v>723</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5718,7 +6004,7 @@
         <v>724</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5726,7 +6012,7 @@
         <v>725</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5734,7 +6020,7 @@
         <v>726</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5742,7 +6028,7 @@
         <v>727</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5750,7 +6036,7 @@
         <v>728</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5758,7 +6044,7 @@
         <v>729</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5766,7 +6052,7 @@
         <v>730</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5774,7 +6060,7 @@
         <v>731</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5782,7 +6068,7 @@
         <v>732</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5790,7 +6076,7 @@
         <v>733</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5798,7 +6084,7 @@
         <v>734</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -5806,7 +6092,7 @@
         <v>735</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5814,200 +6100,392 @@
         <v>736</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
@@ -6661,7 +7139,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6801,7 +7279,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>695</v>
       </c>
@@ -6809,7 +7287,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>696</v>
       </c>
@@ -6817,7 +7295,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>697</v>
       </c>
@@ -6825,7 +7303,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>698</v>
       </c>
@@ -6833,7 +7311,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>713</v>
       </c>
@@ -6841,7 +7319,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>699</v>
       </c>
@@ -6849,7 +7327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>700</v>
       </c>
@@ -6857,7 +7335,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>701</v>
       </c>
@@ -6865,39 +7343,42 @@
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>702</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="5"/>
     </row>
@@ -7063,8 +7544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7152,12 +7633,19 @@
       <c r="B10" s="3" t="s">
         <v>378</v>
       </c>
+      <c r="C10" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1064</v>
+      </c>
       <c r="C11" t="s">
-        <v>685</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7458,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7478,10 +7966,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C2" t="s">
         <v>685</v>
@@ -7489,538 +7977,538 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>941</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>942</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -8061,10 +8549,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C2" t="s">
         <v>685</v>
@@ -8072,295 +8560,295 @@
     </row>
     <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>181</v>
@@ -8368,402 +8856,402 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +9265,7 @@
   <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="A51" sqref="A50:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9141,13 +9629,21 @@
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+    <row r="45" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="公司信息" sheetId="11" r:id="rId13"/>
     <sheet name="修改密码" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1155">
   <si>
     <t>用例类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1792,14 +1792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2371,14 +2363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2014.12.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3907,6 +3891,18 @@
   </si>
   <si>
     <t>认证驳回用户登录之后，进入修改密码页面，前密码为空，新密码和确认密码不为空并且相同，点击提交按钮，不能修改提交成功</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4064,7 +4060,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4106,7 +4102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4141,7 +4137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4350,10 +4346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4362,30 +4358,27 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>508</v>
+        <v>1152</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>509</v>
+        <v>1153</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>684</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B2" s="12">
         <f>COUNTA(首页!A2:A1000)</f>
@@ -4395,20 +4388,17 @@
         <f>COUNTA(首页!A58:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B3" s="12">
         <f>COUNTA(注册!A2:A999)</f>
@@ -4418,20 +4408,17 @@
         <f>COUNTA(注册!A12:A999)</f>
         <v>14</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B4" s="12">
         <f>COUNTA(登录!A2:A1000)</f>
@@ -4441,20 +4428,17 @@
         <f>COUNTA(登录!A11:A1000)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
+      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B5" s="12">
         <f>COUNTA(基本信息!A2:A1000)</f>
@@ -4471,11 +4455,10 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B6" s="12">
         <f>COUNTA(认证信息!A2:A1000)</f>
@@ -4485,20 +4468,17 @@
         <f>COUNTA(认证信息!A2:A1000)</f>
         <v>88</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B7" s="12">
         <f>COUNTA(发布货源!A2:A1000)</f>
@@ -4508,20 +4488,17 @@
         <f>COUNTA(发布货源!A43:A1000)</f>
         <v>4</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" s="12">
         <f>COUNTA(我的货源!A2:A1000)</f>
@@ -4531,20 +4508,17 @@
         <f>COUNTA(我的货源!A22:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B9" s="12">
         <f>COUNTA(找货源!A2:A1000)-2</f>
@@ -4554,19 +4528,16 @@
         <f>COUNTA(找货源!A86:A1000)-2</f>
         <v>0</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B10" s="12">
         <f>COUNTA(找车源!A2:A1000)</f>
@@ -4576,20 +4547,17 @@
         <f>COUNTA(找车源!A84:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B11" s="12">
         <f>COUNTA(我的订单!A2:A1000)</f>
@@ -4599,20 +4567,17 @@
         <f>COUNTA(我的订单!A16:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B12" s="12">
         <f>COUNTA(个人中心!A2:A1000)</f>
@@ -4622,20 +4587,17 @@
         <f>COUNTA(个人中心!A11:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B13" s="12">
         <f>COUNTA(公司信息!A2:A1000)</f>
@@ -4645,20 +4607,17 @@
         <f>COUNTA(公司信息!A6:A1000)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B14" s="12">
         <f>COUNTA(修改密码!A2:A1000)</f>
@@ -4675,9 +4634,8 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4688,11 +4646,10 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B16" s="13">
         <f>SUM(B1:B14)</f>
@@ -4702,19 +4659,15 @@
         <f>SUM(C2:C14)</f>
         <v>239</v>
       </c>
-      <c r="D16" s="13">
-        <f>SUM(D2:D13)</f>
-        <v>0</v>
-      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4725,9 +4678,8 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4738,9 +4690,8 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4751,9 +4702,8 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4764,9 +4714,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4777,9 +4726,8 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4790,9 +4738,8 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4803,9 +4750,8 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4816,9 +4762,8 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4829,9 +4774,8 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4842,9 +4786,8 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4855,9 +4798,8 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4868,9 +4810,8 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4881,9 +4822,8 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4894,9 +4834,8 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -4907,7 +4846,6 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5069,7 +5007,7 @@
         <v>374</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -5077,7 +5015,7 @@
         <v>371</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -5085,7 +5023,7 @@
         <v>372</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -5093,7 +5031,7 @@
         <v>375</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -5101,7 +5039,7 @@
         <v>373</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -5109,7 +5047,7 @@
         <v>436</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -5117,151 +5055,151 @@
         <v>437</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -5403,7 +5341,7 @@
         <v>394</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -5411,7 +5349,7 @@
         <v>395</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -5419,7 +5357,7 @@
         <v>396</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -5427,7 +5365,7 @@
         <v>397</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -5435,7 +5373,7 @@
         <v>398</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -5448,23 +5386,23 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>435</v>
@@ -5472,161 +5410,161 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C88" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5772,7 +5710,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5806,79 +5744,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +5881,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +5895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -5969,522 +5907,522 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -7118,13 +7056,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C79" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -7230,128 +7168,128 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C25" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -7634,18 +7572,18 @@
         <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C11" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7966,549 +7904,549 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -8549,306 +8487,306 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>181</v>
@@ -8856,402 +8794,402 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -9610,39 +9548,39 @@
         <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -10076,7 +10014,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -10558,215 +10496,215 @@
     </row>
     <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C84" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/res/caselist/标准版自动化用例清单.xlsx
+++ b/logistics/res/caselist/标准版自动化用例清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="统计" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="公司信息" sheetId="11" r:id="rId13"/>
     <sheet name="修改密码" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4060,7 +4060,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4102,7 +4102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4137,7 +4137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4348,8 +4348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7076,8 +7076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
